--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1071729.358263438</v>
+        <v>1067894.042111783</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33315485.83212408</v>
+        <v>33315485.83212409</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6051961.679838831</v>
+        <v>6051961.679838832</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4221082.480380443</v>
+        <v>4221082.480380442</v>
       </c>
     </row>
     <row r="11">
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>37.06736141641883</v>
-      </c>
-      <c r="F9" t="n">
-        <v>41.31500304752735</v>
       </c>
       <c r="G9" t="n">
         <v>41.31500304752735</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>41.31500304752735</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T11" t="n">
-        <v>41.18757979144627</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U11" t="n">
         <v>256.4793149654022</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>108.1989220093878</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.33346274581518</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0900140992919</v>
+        <v>61.28250135775809</v>
       </c>
       <c r="H13" t="n">
         <v>130.9872392357504</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T13" t="n">
         <v>239.8087099681002</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6025608416909</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>362.7073931165543</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>266.9386168967821</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>269.5113011967384</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1773,16 +1773,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>130.9872392357504</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8087099681002</v>
+        <v>135.1735195381276</v>
       </c>
       <c r="U16" t="n">
         <v>275.6025608416909</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>70.67726112548604</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>159.6422160560789</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H17" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>8.176390723901262</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T18" t="n">
         <v>124.8125887466708</v>
@@ -2007,19 +2007,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>26.51659473494748</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0900140992919</v>
+        <v>59.5840224405197</v>
       </c>
       <c r="H19" t="n">
-        <v>130.9872392357504</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8087099681002</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>142.7444494311448</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T20" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>200.0583094773475</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T21" t="n">
         <v>124.8125887466708</v>
@@ -2244,10 +2244,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2256,10 +2256,10 @@
         <v>163.0900140992919</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>239.8087099681002</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6025608416909</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>225.0139416905556</v>
       </c>
       <c r="X22" t="n">
-        <v>164.5754264842178</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>343.6747418156152</v>
       </c>
       <c r="G23" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>39.87097519686765</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U23" t="n">
         <v>256.4793149654022</v>
       </c>
       <c r="V23" t="n">
-        <v>303.4023669185343</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T24" t="n">
         <v>124.8125887466708</v>
@@ -2496,7 +2496,7 @@
         <v>130.9872392357504</v>
       </c>
       <c r="I25" t="n">
-        <v>62.35142611526319</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>362.3333059186977</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>167.4042121370213</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T26" t="n">
         <v>209.616899433655</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T27" t="n">
         <v>124.8125887466708</v>
@@ -2733,7 +2733,7 @@
         <v>130.9872392357504</v>
       </c>
       <c r="I28" t="n">
-        <v>62.35142611526319</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>131.2211653827443</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>52.51295299643351</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T30" t="n">
         <v>124.8125887466708</v>
@@ -2970,7 +2970,7 @@
         <v>130.9872392357504</v>
       </c>
       <c r="I31" t="n">
-        <v>62.35142611526319</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>197.3763128797042</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>337.6223653120464</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T33" t="n">
         <v>124.8125887466708</v>
@@ -3207,7 +3207,7 @@
         <v>130.9872392357504</v>
       </c>
       <c r="I34" t="n">
-        <v>62.35142611526319</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>120.3050544796083</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3280,10 +3280,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.49929442858</v>
+        <v>365.3364175710752</v>
       </c>
       <c r="H35" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>130.9872392357504</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4.186280302377099</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8087099681002</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6025608416909</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>66.83605028420851</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>397.5579353755063</v>
+        <v>408.1595993390649</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3568,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.03545094668715</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>59.58402244051968</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9872392357504</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.35142611526319</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8087099681002</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>312.6482297390349</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>39.87097519686765</v>
       </c>
       <c r="T41" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>119.9625941793379</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>59.58402244051968</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.9872392357504</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>130.0845068801601</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8087099681002</v>
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.49929442858</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T44" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.4793149654022</v>
       </c>
       <c r="V44" t="n">
-        <v>343.8814884275007</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>117.1169147912922</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>42.05186110359207</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>163.0900140992919</v>
       </c>
       <c r="H46" t="n">
-        <v>130.9872392357504</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.35142611526319</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>143.2730563024271</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="E9" t="n">
-        <v>127.8182329816055</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="F9" t="n">
         <v>86.08590667097184</v>
@@ -4880,55 +4880,55 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>16.73554758011547</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>23.32497423834099</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K9" t="n">
-        <v>34.5873539456846</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L9" t="n">
-        <v>49.73101332618943</v>
+        <v>64.76566681697273</v>
       </c>
       <c r="M9" t="n">
-        <v>67.40294954297083</v>
+        <v>82.43760303375414</v>
       </c>
       <c r="N9" t="n">
-        <v>85.54260932692307</v>
+        <v>100.5772628177064</v>
       </c>
       <c r="O9" t="n">
-        <v>102.136854159046</v>
+        <v>117.1715076498293</v>
       </c>
       <c r="P9" t="n">
-        <v>115.4551986112916</v>
+        <v>130.4898521020749</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.3581591730573</v>
+        <v>160.929668948206</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C10" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D10" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F10" t="n">
         <v>86.76985286506957</v>
@@ -4962,22 +4962,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>7.439194768028656</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>14.23261768427069</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>55.13447070132276</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="M10" t="n">
-        <v>64.3002759708659</v>
+        <v>136.0791245210935</v>
       </c>
       <c r="N10" t="n">
-        <v>105.202128987918</v>
+        <v>145.026987427909</v>
       </c>
       <c r="O10" t="n">
-        <v>146.10398200497</v>
+        <v>153.2917870759318</v>
       </c>
       <c r="P10" t="n">
         <v>160.3637509630746</v>
@@ -4992,22 +4992,22 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>475.2846143343533</v>
+        <v>919.3344024018426</v>
       </c>
       <c r="C11" t="n">
-        <v>475.2846143343533</v>
+        <v>481.1919295852659</v>
       </c>
       <c r="D11" t="n">
-        <v>475.2846143343533</v>
+        <v>481.1919295852659</v>
       </c>
       <c r="E11" t="n">
-        <v>475.2846143343533</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="F11" t="n">
         <v>47.41718474356106</v>
@@ -5038,19 +5038,19 @@
         <v>47.41718474356106</v>
       </c>
       <c r="I11" t="n">
-        <v>118.9365917639704</v>
+        <v>118.9365917639705</v>
       </c>
       <c r="J11" t="n">
-        <v>277.2866545754683</v>
+        <v>277.2866545754684</v>
       </c>
       <c r="K11" t="n">
-        <v>514.6123507107054</v>
+        <v>514.6123507107056</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0358625400454</v>
+        <v>809.0358625400457</v>
       </c>
       <c r="M11" t="n">
-        <v>1136.638748787553</v>
+        <v>1136.638748787554</v>
       </c>
       <c r="N11" t="n">
         <v>1469.542592232819</v>
@@ -5068,25 +5068,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S11" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="T11" t="n">
-        <v>2329.255621227097</v>
+        <v>2118.851283005808</v>
       </c>
       <c r="U11" t="n">
-        <v>2070.185606110529</v>
+        <v>1859.78126788924</v>
       </c>
       <c r="V11" t="n">
-        <v>1707.568656044356</v>
+        <v>1859.78126788924</v>
       </c>
       <c r="W11" t="n">
-        <v>1302.713201455389</v>
+        <v>1454.925813300273</v>
       </c>
       <c r="X11" t="n">
-        <v>883.5707380346998</v>
+        <v>1345.63397288675</v>
       </c>
       <c r="Y11" t="n">
-        <v>475.2846143343533</v>
+        <v>1345.63397288675</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>47.41718474356106</v>
       </c>
       <c r="I12" t="n">
-        <v>74.36658772664222</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J12" t="n">
-        <v>168.6788003306393</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K12" t="n">
-        <v>329.8733934990791</v>
+        <v>337.2933730396216</v>
       </c>
       <c r="L12" t="n">
-        <v>546.6194166623899</v>
+        <v>546.61941666239</v>
       </c>
       <c r="M12" t="n">
         <v>799.5518024445222</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029.369677487777</v>
+        <v>760.6558132332048</v>
       </c>
       <c r="C13" t="n">
-        <v>856.8079659710016</v>
+        <v>588.0941017164297</v>
       </c>
       <c r="D13" t="n">
-        <v>690.9299731725243</v>
+        <v>588.0941017164297</v>
       </c>
       <c r="E13" t="n">
-        <v>521.1719694232617</v>
+        <v>418.3360979671669</v>
       </c>
       <c r="F13" t="n">
-        <v>344.4649153850179</v>
+        <v>241.6290439289232</v>
       </c>
       <c r="G13" t="n">
         <v>179.7275274059352</v>
@@ -5202,19 +5202,19 @@
         <v>193.1653212310857</v>
       </c>
       <c r="K13" t="n">
-        <v>565.1557171556775</v>
+        <v>290.3972625845419</v>
       </c>
       <c r="L13" t="n">
-        <v>1107.789008070307</v>
+        <v>414.8206717312103</v>
       </c>
       <c r="M13" t="n">
-        <v>1348.70291719784</v>
+        <v>558.9372200698538</v>
       </c>
       <c r="N13" t="n">
-        <v>1476.770622111982</v>
+        <v>1129.26372814164</v>
       </c>
       <c r="O13" t="n">
-        <v>2014.731125184675</v>
+        <v>1667.224231214333</v>
       </c>
       <c r="P13" t="n">
         <v>2115.949728296286</v>
@@ -5226,25 +5226,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S13" t="n">
-        <v>2370.859237178053</v>
+        <v>2226.498790017748</v>
       </c>
       <c r="T13" t="n">
-        <v>2128.628217008255</v>
+        <v>1984.267769847949</v>
       </c>
       <c r="U13" t="n">
-        <v>1850.241791915637</v>
+        <v>1984.267769847949</v>
       </c>
       <c r="V13" t="n">
-        <v>1563.286283786068</v>
+        <v>1697.31226171838</v>
       </c>
       <c r="W13" t="n">
-        <v>1291.259879372359</v>
+        <v>1425.285857304671</v>
       </c>
       <c r="X13" t="n">
-        <v>1045.868124705772</v>
+        <v>1179.894102638084</v>
       </c>
       <c r="Y13" t="n">
-        <v>1045.868124705772</v>
+        <v>952.4744319521919</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1944.559666693146</v>
+        <v>752.9619361315227</v>
       </c>
       <c r="C14" t="n">
-        <v>1578.18856253501</v>
+        <v>752.9619361315227</v>
       </c>
       <c r="D14" t="n">
-        <v>1578.18856253501</v>
+        <v>317.0521513059672</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.413817693305</v>
+        <v>317.0521513059672</v>
       </c>
       <c r="F14" t="n">
-        <v>716.5463881025128</v>
+        <v>317.0521513059672</v>
       </c>
       <c r="G14" t="n">
         <v>317.0521513059672</v>
       </c>
       <c r="H14" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I14" t="n">
-        <v>118.9365917639711</v>
+        <v>118.9365917639705</v>
       </c>
       <c r="J14" t="n">
-        <v>277.286654575469</v>
+        <v>277.2866545754686</v>
       </c>
       <c r="K14" t="n">
-        <v>514.612350710706</v>
+        <v>514.6123507107058</v>
       </c>
       <c r="L14" t="n">
-        <v>809.0358625400461</v>
+        <v>809.0358625400462</v>
       </c>
       <c r="M14" t="n">
         <v>1136.638748787554</v>
@@ -5305,25 +5305,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S14" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="T14" t="n">
-        <v>2370.859237178053</v>
+        <v>2118.851283005808</v>
       </c>
       <c r="U14" t="n">
-        <v>2370.859237178053</v>
+        <v>1859.78126788924</v>
       </c>
       <c r="V14" t="n">
-        <v>2370.859237178053</v>
+        <v>1587.547630316777</v>
       </c>
       <c r="W14" t="n">
-        <v>2370.859237178053</v>
+        <v>1587.547630316777</v>
       </c>
       <c r="X14" t="n">
-        <v>2370.859237178053</v>
+        <v>1587.547630316777</v>
       </c>
       <c r="Y14" t="n">
-        <v>2370.859237178053</v>
+        <v>1179.261506616431</v>
       </c>
     </row>
     <row r="15">
@@ -5351,19 +5351,19 @@
         <v>79.31614662250912</v>
       </c>
       <c r="H15" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I15" t="n">
-        <v>74.36658772664222</v>
+        <v>74.36658772664244</v>
       </c>
       <c r="J15" t="n">
-        <v>168.6788003306393</v>
+        <v>168.6788003306395</v>
       </c>
       <c r="K15" t="n">
-        <v>329.8733934990791</v>
+        <v>329.8733934990793</v>
       </c>
       <c r="L15" t="n">
-        <v>546.6194166623899</v>
+        <v>546.61941666239</v>
       </c>
       <c r="M15" t="n">
         <v>799.5518024445222</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>682.9046197002702</v>
+        <v>732.32194684632</v>
       </c>
       <c r="C16" t="n">
-        <v>510.3429081834952</v>
+        <v>559.7602353295449</v>
       </c>
       <c r="D16" t="n">
-        <v>344.4649153850179</v>
+        <v>393.8822425310676</v>
       </c>
       <c r="E16" t="n">
-        <v>344.4649153850179</v>
+        <v>224.1242387818048</v>
       </c>
       <c r="F16" t="n">
-        <v>344.4649153850179</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G16" t="n">
-        <v>179.7275274059352</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H16" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I16" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J16" t="n">
         <v>193.1653212310857</v>
       </c>
       <c r="K16" t="n">
-        <v>565.1557171556775</v>
+        <v>565.1557171556774</v>
       </c>
       <c r="L16" t="n">
         <v>1107.789008070307</v>
       </c>
       <c r="M16" t="n">
-        <v>1348.70291719784</v>
+        <v>1420.86527245328</v>
       </c>
       <c r="N16" t="n">
-        <v>1476.770622111982</v>
+        <v>1548.932977367421</v>
       </c>
       <c r="O16" t="n">
-        <v>2014.731125184675</v>
+        <v>1667.224231214333</v>
       </c>
       <c r="P16" t="n">
         <v>2115.949728296286</v>
@@ -5463,25 +5463,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S16" t="n">
-        <v>2226.498790017748</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T16" t="n">
-        <v>1984.26776984795</v>
+        <v>2234.320328553682</v>
       </c>
       <c r="U16" t="n">
-        <v>1705.881344755333</v>
+        <v>1955.933903461064</v>
       </c>
       <c r="V16" t="n">
-        <v>1418.925836625763</v>
+        <v>1668.978395331495</v>
       </c>
       <c r="W16" t="n">
-        <v>1347.534663771737</v>
+        <v>1396.951990917786</v>
       </c>
       <c r="X16" t="n">
-        <v>1102.142909105149</v>
+        <v>1151.560236251199</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.7232384192573</v>
+        <v>924.140565565307</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1344.316817406345</v>
+        <v>446.9114215401066</v>
       </c>
       <c r="C17" t="n">
-        <v>906.1743445897685</v>
+        <v>446.9114215401066</v>
       </c>
       <c r="D17" t="n">
-        <v>906.1743445897685</v>
+        <v>446.9114215401066</v>
       </c>
       <c r="E17" t="n">
-        <v>744.9195808967595</v>
+        <v>446.9114215401066</v>
       </c>
       <c r="F17" t="n">
-        <v>317.0521513059672</v>
+        <v>446.9114215401066</v>
       </c>
       <c r="G17" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H17" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I17" t="n">
-        <v>118.9365917639708</v>
+        <v>118.9365917639706</v>
       </c>
       <c r="J17" t="n">
-        <v>277.2866545754687</v>
+        <v>277.2866545754684</v>
       </c>
       <c r="K17" t="n">
-        <v>514.6123507107058</v>
+        <v>514.6123507107054</v>
       </c>
       <c r="L17" t="n">
-        <v>809.0358625400459</v>
+        <v>809.0358625400454</v>
       </c>
       <c r="M17" t="n">
-        <v>1136.638748787554</v>
+        <v>1136.638748787553</v>
       </c>
       <c r="N17" t="n">
         <v>1469.542592232819</v>
@@ -5542,25 +5542,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S17" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="T17" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="U17" t="n">
-        <v>2111.789222061485</v>
+        <v>2071.515509741417</v>
       </c>
       <c r="V17" t="n">
-        <v>1749.172271995312</v>
+        <v>1708.898559675243</v>
       </c>
       <c r="W17" t="n">
-        <v>1344.316817406345</v>
+        <v>1700.63957914605</v>
       </c>
       <c r="X17" t="n">
-        <v>1344.316817406345</v>
+        <v>1281.497115725361</v>
       </c>
       <c r="Y17" t="n">
-        <v>1344.316817406345</v>
+        <v>873.2109920250143</v>
       </c>
     </row>
     <row r="18">
@@ -5588,22 +5588,22 @@
         <v>79.31614662250912</v>
       </c>
       <c r="H18" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I18" t="n">
-        <v>74.36658772664222</v>
+        <v>74.36658772664265</v>
       </c>
       <c r="J18" t="n">
-        <v>168.6788003306393</v>
+        <v>168.6788003306397</v>
       </c>
       <c r="K18" t="n">
-        <v>329.8733934990791</v>
+        <v>329.8733934990794</v>
       </c>
       <c r="L18" t="n">
-        <v>546.6194166623899</v>
+        <v>546.6194166623901</v>
       </c>
       <c r="M18" t="n">
-        <v>799.5518024445222</v>
+        <v>799.5518024445223</v>
       </c>
       <c r="N18" t="n">
         <v>1059.178555854504</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.6890588264798</v>
+        <v>626.6298353008929</v>
       </c>
       <c r="C19" t="n">
-        <v>537.1273473097048</v>
+        <v>454.0681237841178</v>
       </c>
       <c r="D19" t="n">
-        <v>371.2493545112275</v>
+        <v>454.0681237841178</v>
       </c>
       <c r="E19" t="n">
-        <v>371.2493545112275</v>
+        <v>284.3101200348551</v>
       </c>
       <c r="F19" t="n">
-        <v>344.4649153850179</v>
+        <v>107.6030659966113</v>
       </c>
       <c r="G19" t="n">
-        <v>179.7275274059352</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H19" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I19" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J19" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K19" t="n">
-        <v>565.1557171556775</v>
+        <v>203.817577419852</v>
       </c>
       <c r="L19" t="n">
-        <v>1107.789008070307</v>
+        <v>487.8492277029595</v>
       </c>
       <c r="M19" t="n">
-        <v>1326.113363265977</v>
+        <v>1074.636888904527</v>
       </c>
       <c r="N19" t="n">
-        <v>1896.439871337763</v>
+        <v>1644.963396976314</v>
       </c>
       <c r="O19" t="n">
-        <v>2014.731125184675</v>
+        <v>2182.923900049007</v>
       </c>
       <c r="P19" t="n">
-        <v>2115.949728296286</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q19" t="n">
         <v>2354.221017386493</v>
@@ -5700,25 +5700,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S19" t="n">
-        <v>2226.498790017748</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T19" t="n">
-        <v>1984.26776984795</v>
+        <v>2128.628217008255</v>
       </c>
       <c r="U19" t="n">
-        <v>1705.881344755333</v>
+        <v>1850.241791915637</v>
       </c>
       <c r="V19" t="n">
-        <v>1418.925836625763</v>
+        <v>1563.286283786068</v>
       </c>
       <c r="W19" t="n">
-        <v>1146.899432212055</v>
+        <v>1291.259879372359</v>
       </c>
       <c r="X19" t="n">
-        <v>901.507677545467</v>
+        <v>1045.868124705772</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.507677545467</v>
+        <v>818.44845401988</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>909.0593591760581</v>
+        <v>1499.43049978411</v>
       </c>
       <c r="C20" t="n">
-        <v>909.0593591760581</v>
+        <v>1061.288026967533</v>
       </c>
       <c r="D20" t="n">
-        <v>909.0593591760581</v>
+        <v>625.3782421419778</v>
       </c>
       <c r="E20" t="n">
-        <v>475.2846143343533</v>
+        <v>191.603497300273</v>
       </c>
       <c r="F20" t="n">
-        <v>47.41718474356107</v>
+        <v>191.603497300273</v>
       </c>
       <c r="G20" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H20" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I20" t="n">
-        <v>118.9365917639707</v>
+        <v>118.936591763971</v>
       </c>
       <c r="J20" t="n">
         <v>277.2866545754686</v>
@@ -5779,25 +5779,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S20" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="T20" t="n">
-        <v>2159.124995325877</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="U20" t="n">
-        <v>1900.054980209309</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="V20" t="n">
-        <v>1537.438030143135</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="W20" t="n">
-        <v>1335.358929660966</v>
+        <v>1925.730070269018</v>
       </c>
       <c r="X20" t="n">
-        <v>1335.358929660966</v>
+        <v>1925.730070269018</v>
       </c>
       <c r="Y20" t="n">
-        <v>1335.358929660966</v>
+        <v>1925.730070269018</v>
       </c>
     </row>
     <row r="21">
@@ -5825,22 +5825,22 @@
         <v>79.31614662250912</v>
       </c>
       <c r="H21" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I21" t="n">
-        <v>81.78656726718472</v>
+        <v>74.36658772664265</v>
       </c>
       <c r="J21" t="n">
-        <v>176.0987798711818</v>
+        <v>168.6788003306397</v>
       </c>
       <c r="K21" t="n">
-        <v>329.8733934990791</v>
+        <v>329.8733934990794</v>
       </c>
       <c r="L21" t="n">
-        <v>546.6194166623899</v>
+        <v>546.6194166623901</v>
       </c>
       <c r="M21" t="n">
-        <v>799.5518024445222</v>
+        <v>799.5518024445223</v>
       </c>
       <c r="N21" t="n">
         <v>1059.178555854504</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>561.4233382776627</v>
+        <v>1092.350915988043</v>
       </c>
       <c r="C22" t="n">
-        <v>388.8616267608876</v>
+        <v>919.7892044712677</v>
       </c>
       <c r="D22" t="n">
-        <v>388.8616267608876</v>
+        <v>753.9112116727904</v>
       </c>
       <c r="E22" t="n">
-        <v>388.8616267608876</v>
+        <v>584.1532079235276</v>
       </c>
       <c r="F22" t="n">
-        <v>212.1545727226438</v>
+        <v>407.4461538852838</v>
       </c>
       <c r="G22" t="n">
-        <v>47.41718474356107</v>
+        <v>242.7087659062011</v>
       </c>
       <c r="H22" t="n">
-        <v>47.41718474356107</v>
+        <v>110.3984232438269</v>
       </c>
       <c r="I22" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J22" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K22" t="n">
-        <v>565.1557171556775</v>
+        <v>203.817577419852</v>
       </c>
       <c r="L22" t="n">
-        <v>689.5791263023459</v>
+        <v>328.2409865665203</v>
       </c>
       <c r="M22" t="n">
-        <v>820.7661657982492</v>
+        <v>915.0286477680885</v>
       </c>
       <c r="N22" t="n">
-        <v>1129.26372814164</v>
+        <v>1485.355155839875</v>
       </c>
       <c r="O22" t="n">
-        <v>1667.224231214333</v>
+        <v>2023.315658912568</v>
       </c>
       <c r="P22" t="n">
-        <v>2115.949728296286</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q22" t="n">
         <v>2354.221017386493</v>
@@ -5940,22 +5940,22 @@
         <v>2226.498790017748</v>
       </c>
       <c r="T22" t="n">
-        <v>1984.26776984795</v>
+        <v>1984.267769847949</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.881344755333</v>
+        <v>1984.267769847949</v>
       </c>
       <c r="V22" t="n">
-        <v>1418.925836625763</v>
+        <v>1984.267769847949</v>
       </c>
       <c r="W22" t="n">
-        <v>1146.899432212055</v>
+        <v>1756.980960059509</v>
       </c>
       <c r="X22" t="n">
-        <v>980.6616276825416</v>
+        <v>1511.589205392922</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.2419569966498</v>
+        <v>1284.16953470703</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>728.9970315279711</v>
+        <v>1714.841034507013</v>
       </c>
       <c r="C23" t="n">
-        <v>728.9970315279711</v>
+        <v>1276.698561690436</v>
       </c>
       <c r="D23" t="n">
-        <v>728.9970315279711</v>
+        <v>840.7887768648809</v>
       </c>
       <c r="E23" t="n">
-        <v>728.9970315279711</v>
+        <v>407.0140320231761</v>
       </c>
       <c r="F23" t="n">
-        <v>728.9970315279711</v>
+        <v>59.86782816901933</v>
       </c>
       <c r="G23" t="n">
-        <v>329.5027947314255</v>
+        <v>59.86782816901933</v>
       </c>
       <c r="H23" t="n">
         <v>59.86782816901933</v>
@@ -5992,22 +5992,22 @@
         <v>724.9919854538447</v>
       </c>
       <c r="K23" t="n">
-        <v>962.3176815890818</v>
+        <v>967.9904572305616</v>
       </c>
       <c r="L23" t="n">
-        <v>1256.741193418422</v>
+        <v>1262.413969059902</v>
       </c>
       <c r="M23" t="n">
-        <v>1584.34407966593</v>
+        <v>1590.01685530741</v>
       </c>
       <c r="N23" t="n">
-        <v>1917.247923111195</v>
+        <v>1922.920698752675</v>
       </c>
       <c r="O23" t="n">
-        <v>2231.599582434965</v>
+        <v>2237.272358076444</v>
       </c>
       <c r="P23" t="n">
-        <v>2499.891450885126</v>
+        <v>2505.564226526606</v>
       </c>
       <c r="Q23" t="n">
         <v>2707.040246443661</v>
@@ -6019,22 +6019,22 @@
         <v>2953.117696130898</v>
       </c>
       <c r="T23" t="n">
-        <v>2953.117696130898</v>
+        <v>2741.383454278721</v>
       </c>
       <c r="U23" t="n">
-        <v>2694.04768101433</v>
+        <v>2482.313439162153</v>
       </c>
       <c r="V23" t="n">
-        <v>2387.580643722881</v>
+        <v>2119.69648909598</v>
       </c>
       <c r="W23" t="n">
-        <v>1982.725189133915</v>
+        <v>1714.841034507013</v>
       </c>
       <c r="X23" t="n">
-        <v>1563.582725713225</v>
+        <v>1714.841034507013</v>
       </c>
       <c r="Y23" t="n">
-        <v>1155.296602012879</v>
+        <v>1714.841034507013</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>59.86782816901933</v>
       </c>
       <c r="I24" t="n">
-        <v>94.23721069264299</v>
+        <v>94.23721069264298</v>
       </c>
       <c r="J24" t="n">
         <v>188.5494232966401</v>
       </c>
       <c r="K24" t="n">
-        <v>349.7440164650799</v>
+        <v>349.7440164650798</v>
       </c>
       <c r="L24" t="n">
-        <v>566.4900396283906</v>
+        <v>566.4900396283905</v>
       </c>
       <c r="M24" t="n">
-        <v>819.4224254105229</v>
+        <v>819.4224254105227</v>
       </c>
       <c r="N24" t="n">
         <v>1079.049178820505</v>
@@ -6089,7 +6089,7 @@
         <v>1507.177850167325</v>
       </c>
       <c r="Q24" t="n">
-        <v>1634.602883156821</v>
+        <v>1627.182903616279</v>
       </c>
       <c r="R24" t="n">
         <v>1689.161627056332</v>
@@ -6147,25 +6147,25 @@
         <v>59.86782816901933</v>
       </c>
       <c r="J25" t="n">
-        <v>119.0362794918541</v>
+        <v>205.615964656544</v>
       </c>
       <c r="K25" t="n">
-        <v>216.3579686156533</v>
+        <v>577.6063605811356</v>
       </c>
       <c r="L25" t="n">
-        <v>758.9912595302827</v>
+        <v>1120.239651495765</v>
       </c>
       <c r="M25" t="n">
-        <v>1349.662166207099</v>
+        <v>1623.728194500412</v>
       </c>
       <c r="N25" t="n">
-        <v>1919.988674278885</v>
+        <v>1751.795899414553</v>
       </c>
       <c r="O25" t="n">
-        <v>2457.949177351579</v>
+        <v>2289.756402487247</v>
       </c>
       <c r="P25" t="n">
-        <v>2906.674674433531</v>
+        <v>2738.481899569199</v>
       </c>
       <c r="Q25" t="n">
         <v>2976.753188659406</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>864.0035392873109</v>
+        <v>1928.241875989408</v>
       </c>
       <c r="C26" t="n">
-        <v>425.8610664707342</v>
+        <v>1490.099403172831</v>
       </c>
       <c r="D26" t="n">
-        <v>425.8610664707342</v>
+        <v>1490.099403172831</v>
       </c>
       <c r="E26" t="n">
-        <v>425.8610664707342</v>
+        <v>1056.324658331126</v>
       </c>
       <c r="F26" t="n">
-        <v>59.86782816901933</v>
+        <v>628.4572287403339</v>
       </c>
       <c r="G26" t="n">
-        <v>59.86782816901933</v>
+        <v>228.9629919437884</v>
       </c>
       <c r="H26" t="n">
         <v>59.86782816901933</v>
@@ -6226,52 +6226,52 @@
         <v>131.3872351894289</v>
       </c>
       <c r="J26" t="n">
-        <v>724.9919854538447</v>
+        <v>360.430472173823</v>
       </c>
       <c r="K26" t="n">
-        <v>962.3176815890818</v>
+        <v>597.7561683090599</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.741193418422</v>
+        <v>892.1796801384</v>
       </c>
       <c r="M26" t="n">
-        <v>1584.34407966593</v>
+        <v>1219.782566385908</v>
       </c>
       <c r="N26" t="n">
-        <v>1917.247923111195</v>
+        <v>1552.686409831173</v>
       </c>
       <c r="O26" t="n">
-        <v>2231.599582434965</v>
+        <v>1867.038069154942</v>
       </c>
       <c r="P26" t="n">
-        <v>2499.891450885126</v>
+        <v>2135.329937605104</v>
       </c>
       <c r="Q26" t="n">
-        <v>2707.040246443661</v>
+        <v>2876.194311196718</v>
       </c>
       <c r="R26" t="n">
         <v>2993.391408450966</v>
       </c>
       <c r="S26" t="n">
-        <v>2993.391408450966</v>
+        <v>2953.117696130898</v>
       </c>
       <c r="T26" t="n">
-        <v>2781.657166598789</v>
+        <v>2741.383454278721</v>
       </c>
       <c r="U26" t="n">
-        <v>2522.587151482222</v>
+        <v>2741.383454278721</v>
       </c>
       <c r="V26" t="n">
-        <v>2522.587151482222</v>
+        <v>2741.383454278721</v>
       </c>
       <c r="W26" t="n">
-        <v>2117.731696893255</v>
+        <v>2336.527999689754</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.589233472565</v>
+        <v>2336.527999689754</v>
       </c>
       <c r="Y26" t="n">
-        <v>1290.303109772219</v>
+        <v>1928.241875989408</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>59.86782816901933</v>
       </c>
       <c r="I27" t="n">
-        <v>94.23721069264299</v>
+        <v>94.23721069264298</v>
       </c>
       <c r="J27" t="n">
-        <v>181.1294437560978</v>
+        <v>188.5494232966401</v>
       </c>
       <c r="K27" t="n">
-        <v>342.3240369245376</v>
+        <v>349.7440164650798</v>
       </c>
       <c r="L27" t="n">
-        <v>559.0700600878483</v>
+        <v>566.4900396283905</v>
       </c>
       <c r="M27" t="n">
-        <v>812.0024458699805</v>
+        <v>819.4224254105227</v>
       </c>
       <c r="N27" t="n">
-        <v>1071.629199279963</v>
+        <v>1079.049178820505</v>
       </c>
       <c r="O27" t="n">
         <v>1309.136956446716</v>
@@ -6363,13 +6363,13 @@
         <v>1104.801559413501</v>
       </c>
       <c r="C28" t="n">
-        <v>932.2398478967258</v>
+        <v>932.2398478967257</v>
       </c>
       <c r="D28" t="n">
         <v>766.3618550982485</v>
       </c>
       <c r="E28" t="n">
-        <v>596.6038513489858</v>
+        <v>596.6038513489857</v>
       </c>
       <c r="F28" t="n">
         <v>419.896797310742</v>
@@ -6384,25 +6384,25 @@
         <v>59.86782816901933</v>
       </c>
       <c r="J28" t="n">
-        <v>119.0362794918541</v>
+        <v>205.615964656544</v>
       </c>
       <c r="K28" t="n">
-        <v>216.3579686156533</v>
+        <v>577.6063605811356</v>
       </c>
       <c r="L28" t="n">
-        <v>758.9912595302827</v>
+        <v>1120.239651495765</v>
       </c>
       <c r="M28" t="n">
-        <v>1349.662166207099</v>
+        <v>1251.426690991668</v>
       </c>
       <c r="N28" t="n">
-        <v>1919.988674278885</v>
+        <v>1751.795899414553</v>
       </c>
       <c r="O28" t="n">
-        <v>2457.949177351579</v>
+        <v>2289.756402487247</v>
       </c>
       <c r="P28" t="n">
-        <v>2906.674674433531</v>
+        <v>2738.481899569199</v>
       </c>
       <c r="Q28" t="n">
         <v>2976.753188659406</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1767.189067449402</v>
+        <v>1795.562260243649</v>
       </c>
       <c r="C29" t="n">
-        <v>1329.046594632825</v>
+        <v>1357.419787427072</v>
       </c>
       <c r="D29" t="n">
-        <v>893.1368098072696</v>
+        <v>921.5100026015164</v>
       </c>
       <c r="E29" t="n">
-        <v>459.3620649655649</v>
+        <v>487.7352577598116</v>
       </c>
       <c r="F29" t="n">
-        <v>459.3620649655649</v>
+        <v>59.86782816901933</v>
       </c>
       <c r="G29" t="n">
         <v>59.86782816901933</v>
@@ -6466,22 +6466,22 @@
         <v>724.9919854538447</v>
       </c>
       <c r="K29" t="n">
-        <v>962.3176815890818</v>
+        <v>962.3176815890816</v>
       </c>
       <c r="L29" t="n">
-        <v>1262.413969059901</v>
+        <v>1256.741193418422</v>
       </c>
       <c r="M29" t="n">
-        <v>1590.016855307409</v>
+        <v>1584.344079665929</v>
       </c>
       <c r="N29" t="n">
-        <v>1922.920698752675</v>
+        <v>1917.247923111195</v>
       </c>
       <c r="O29" t="n">
-        <v>2237.272358076444</v>
+        <v>2231.599582434964</v>
       </c>
       <c r="P29" t="n">
-        <v>2505.564226526606</v>
+        <v>2499.891450885126</v>
       </c>
       <c r="Q29" t="n">
         <v>2707.040246443661</v>
@@ -6490,25 +6490,25 @@
         <v>2993.391408450966</v>
       </c>
       <c r="S29" t="n">
-        <v>2993.391408450966</v>
+        <v>2953.117696130898</v>
       </c>
       <c r="T29" t="n">
-        <v>2993.391408450966</v>
+        <v>2953.117696130898</v>
       </c>
       <c r="U29" t="n">
-        <v>2734.321393334398</v>
+        <v>2694.04768101433</v>
       </c>
       <c r="V29" t="n">
-        <v>2734.321393334398</v>
+        <v>2694.04768101433</v>
       </c>
       <c r="W29" t="n">
-        <v>2734.321393334398</v>
+        <v>2694.04768101433</v>
       </c>
       <c r="X29" t="n">
-        <v>2601.774761634656</v>
+        <v>2274.905217593641</v>
       </c>
       <c r="Y29" t="n">
-        <v>2193.48863793431</v>
+        <v>2221.861830728556</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>59.86782816901933</v>
       </c>
       <c r="I30" t="n">
-        <v>86.81723115210072</v>
+        <v>94.23721069264298</v>
       </c>
       <c r="J30" t="n">
-        <v>181.1294437560978</v>
+        <v>188.5494232966401</v>
       </c>
       <c r="K30" t="n">
-        <v>342.3240369245376</v>
+        <v>349.7440164650798</v>
       </c>
       <c r="L30" t="n">
-        <v>559.0700600878483</v>
+        <v>566.4900396283905</v>
       </c>
       <c r="M30" t="n">
-        <v>812.0024458699805</v>
+        <v>819.4224254105227</v>
       </c>
       <c r="N30" t="n">
-        <v>1071.629199279963</v>
+        <v>1079.049178820505</v>
       </c>
       <c r="O30" t="n">
-        <v>1309.136956446716</v>
+        <v>1316.556935987258</v>
       </c>
       <c r="P30" t="n">
-        <v>1499.757870626783</v>
+        <v>1507.177850167325</v>
       </c>
       <c r="Q30" t="n">
         <v>1627.182903616279</v>
@@ -6621,22 +6621,22 @@
         <v>59.86782816901933</v>
       </c>
       <c r="J31" t="n">
-        <v>191.8744666614031</v>
+        <v>119.1260272621973</v>
       </c>
       <c r="K31" t="n">
-        <v>563.8648625859948</v>
+        <v>216.3579686156534</v>
       </c>
       <c r="L31" t="n">
-        <v>1106.498153500624</v>
+        <v>758.9912595302828</v>
       </c>
       <c r="M31" t="n">
-        <v>1697.169060177441</v>
+        <v>1349.662166207099</v>
       </c>
       <c r="N31" t="n">
-        <v>2267.495568249227</v>
+        <v>1919.988674278885</v>
       </c>
       <c r="O31" t="n">
-        <v>2805.45607132192</v>
+        <v>2457.949177351579</v>
       </c>
       <c r="P31" t="n">
         <v>2906.674674433531</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2225.919003795826</v>
+        <v>1702.820207636334</v>
       </c>
       <c r="C32" t="n">
-        <v>2026.548990786024</v>
+        <v>1264.677734819757</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.639205960468</v>
+        <v>828.7679499942019</v>
       </c>
       <c r="E32" t="n">
-        <v>1156.864461118763</v>
+        <v>487.7352577598116</v>
       </c>
       <c r="F32" t="n">
-        <v>728.9970315279711</v>
+        <v>59.86782816901933</v>
       </c>
       <c r="G32" t="n">
-        <v>329.5027947314255</v>
+        <v>59.86782816901933</v>
       </c>
       <c r="H32" t="n">
         <v>59.86782816901933</v>
@@ -6700,22 +6700,22 @@
         <v>131.3872351894289</v>
       </c>
       <c r="J32" t="n">
-        <v>724.9919854538447</v>
+        <v>304.1520468274799</v>
       </c>
       <c r="K32" t="n">
-        <v>962.3176815890818</v>
+        <v>541.4777429627169</v>
       </c>
       <c r="L32" t="n">
-        <v>1256.741193418422</v>
+        <v>835.9012547920569</v>
       </c>
       <c r="M32" t="n">
-        <v>1584.34407966593</v>
+        <v>1163.504141039565</v>
       </c>
       <c r="N32" t="n">
-        <v>1917.247923111195</v>
+        <v>1496.40798448483</v>
       </c>
       <c r="O32" t="n">
-        <v>2231.599582434965</v>
+        <v>2237.272358076444</v>
       </c>
       <c r="P32" t="n">
         <v>2505.564226526606</v>
@@ -6727,25 +6727,25 @@
         <v>2993.391408450966</v>
       </c>
       <c r="S32" t="n">
-        <v>2993.391408450966</v>
+        <v>2953.117696130898</v>
       </c>
       <c r="T32" t="n">
-        <v>2993.391408450966</v>
+        <v>2953.117696130898</v>
       </c>
       <c r="U32" t="n">
-        <v>2993.391408450966</v>
+        <v>2953.117696130898</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.774458384793</v>
+        <v>2953.117696130898</v>
       </c>
       <c r="W32" t="n">
-        <v>2225.919003795826</v>
+        <v>2548.262241541931</v>
       </c>
       <c r="X32" t="n">
-        <v>2225.919003795826</v>
+        <v>2129.119778121242</v>
       </c>
       <c r="Y32" t="n">
-        <v>2225.919003795826</v>
+        <v>2129.119778121242</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>59.86782816901933</v>
       </c>
       <c r="I33" t="n">
-        <v>94.23721069264299</v>
+        <v>94.23721069264298</v>
       </c>
       <c r="J33" t="n">
         <v>188.5494232966401</v>
       </c>
       <c r="K33" t="n">
-        <v>349.7440164650799</v>
+        <v>349.7440164650798</v>
       </c>
       <c r="L33" t="n">
-        <v>559.0700600878483</v>
+        <v>566.4900396283905</v>
       </c>
       <c r="M33" t="n">
-        <v>812.0024458699805</v>
+        <v>819.4224254105227</v>
       </c>
       <c r="N33" t="n">
         <v>1071.629199279963</v>
@@ -6846,7 +6846,7 @@
         <v>596.6038513489857</v>
       </c>
       <c r="F34" t="n">
-        <v>419.896797310742</v>
+        <v>419.8967973107419</v>
       </c>
       <c r="G34" t="n">
         <v>255.1594093316593</v>
@@ -6861,10 +6861,10 @@
         <v>119.0362794918541</v>
       </c>
       <c r="K34" t="n">
-        <v>216.3579686156533</v>
+        <v>216.3579686156534</v>
       </c>
       <c r="L34" t="n">
-        <v>758.9912595302827</v>
+        <v>758.9912595302828</v>
       </c>
       <c r="M34" t="n">
         <v>1349.662166207099</v>
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1699.708819585119</v>
+        <v>1713.995828416841</v>
       </c>
       <c r="C35" t="n">
-        <v>1699.708819585119</v>
+        <v>1713.995828416841</v>
       </c>
       <c r="D35" t="n">
-        <v>1578.18856253501</v>
+        <v>1278.086043591286</v>
       </c>
       <c r="E35" t="n">
-        <v>1144.413817693305</v>
+        <v>844.3112987495808</v>
       </c>
       <c r="F35" t="n">
-        <v>716.5463881025128</v>
+        <v>416.4438691587886</v>
       </c>
       <c r="G35" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H35" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I35" t="n">
-        <v>118.9365917639707</v>
+        <v>118.9365917639706</v>
       </c>
       <c r="J35" t="n">
-        <v>277.2866545754686</v>
+        <v>277.2866545754684</v>
       </c>
       <c r="K35" t="n">
-        <v>514.6123507107056</v>
+        <v>514.6123507107054</v>
       </c>
       <c r="L35" t="n">
-        <v>809.0358625400456</v>
+        <v>809.0358625400454</v>
       </c>
       <c r="M35" t="n">
-        <v>1136.638748787554</v>
+        <v>1136.638748787553</v>
       </c>
       <c r="N35" t="n">
         <v>1469.542592232819</v>
@@ -6976,13 +6976,13 @@
         <v>2118.851283005808</v>
       </c>
       <c r="W35" t="n">
-        <v>2118.851283005808</v>
+        <v>1713.995828416841</v>
       </c>
       <c r="X35" t="n">
-        <v>1699.708819585119</v>
+        <v>1713.995828416841</v>
       </c>
       <c r="Y35" t="n">
-        <v>1699.708819585119</v>
+        <v>1713.995828416841</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>79.31614662250912</v>
       </c>
       <c r="H36" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I36" t="n">
-        <v>81.78656726718472</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J36" t="n">
         <v>176.0987798711818</v>
       </c>
       <c r="K36" t="n">
-        <v>329.8733934990791</v>
+        <v>337.2933730396216</v>
       </c>
       <c r="L36" t="n">
-        <v>546.6194166623899</v>
+        <v>554.0393962029324</v>
       </c>
       <c r="M36" t="n">
-        <v>799.5518024445222</v>
+        <v>806.9717819850646</v>
       </c>
       <c r="N36" t="n">
-        <v>1059.178555854504</v>
+        <v>1066.598535395047</v>
       </c>
       <c r="O36" t="n">
-        <v>1296.686313021258</v>
+        <v>1304.1062925618</v>
       </c>
       <c r="P36" t="n">
-        <v>1487.307227201325</v>
+        <v>1494.727206741867</v>
       </c>
       <c r="Q36" t="n">
-        <v>1614.73226019082</v>
+        <v>1622.152239731363</v>
       </c>
       <c r="R36" t="n">
         <v>1676.710983630873</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>686.7846306510556</v>
+        <v>868.8608554706911</v>
       </c>
       <c r="C37" t="n">
-        <v>514.2229191342806</v>
+        <v>696.2991439539161</v>
       </c>
       <c r="D37" t="n">
-        <v>514.2229191342806</v>
+        <v>530.4211511554388</v>
       </c>
       <c r="E37" t="n">
-        <v>344.4649153850179</v>
+        <v>360.6631474061761</v>
       </c>
       <c r="F37" t="n">
-        <v>344.4649153850179</v>
+        <v>183.9560933679323</v>
       </c>
       <c r="G37" t="n">
-        <v>179.7275274059352</v>
+        <v>183.9560933679323</v>
       </c>
       <c r="H37" t="n">
-        <v>47.41718474356107</v>
+        <v>51.64575070555813</v>
       </c>
       <c r="I37" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J37" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K37" t="n">
-        <v>565.1557171556775</v>
+        <v>478.5760319909876</v>
       </c>
       <c r="L37" t="n">
-        <v>1107.789008070307</v>
+        <v>602.999441137656</v>
       </c>
       <c r="M37" t="n">
-        <v>1238.97604756621</v>
+        <v>1189.787102339224</v>
       </c>
       <c r="N37" t="n">
-        <v>1367.043752480352</v>
+        <v>1760.11361041101</v>
       </c>
       <c r="O37" t="n">
-        <v>1667.224231214333</v>
+        <v>2182.923900049007</v>
       </c>
       <c r="P37" t="n">
-        <v>2115.949728296286</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q37" t="n">
         <v>2354.221017386493</v>
@@ -7122,25 +7122,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S37" t="n">
-        <v>2226.498790017748</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T37" t="n">
-        <v>1984.26776984795</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="U37" t="n">
-        <v>1705.881344755333</v>
+        <v>2092.472812085436</v>
       </c>
       <c r="V37" t="n">
-        <v>1418.925836625763</v>
+        <v>1805.517303955866</v>
       </c>
       <c r="W37" t="n">
-        <v>1351.414674722522</v>
+        <v>1533.490899542158</v>
       </c>
       <c r="X37" t="n">
-        <v>1106.022920055934</v>
+        <v>1288.09914487557</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.6032493700427</v>
+        <v>1060.679474189678</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>884.9006416655876</v>
+        <v>1603.386832522913</v>
       </c>
       <c r="C38" t="n">
-        <v>884.9006416655876</v>
+        <v>1165.244359706336</v>
       </c>
       <c r="D38" t="n">
-        <v>448.9908568400321</v>
+        <v>729.3345748807803</v>
       </c>
       <c r="E38" t="n">
-        <v>47.41718474356107</v>
+        <v>317.0521513059672</v>
       </c>
       <c r="F38" t="n">
-        <v>47.41718474356107</v>
+        <v>317.0521513059672</v>
       </c>
       <c r="G38" t="n">
-        <v>47.41718474356107</v>
+        <v>317.0521513059672</v>
       </c>
       <c r="H38" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I38" t="n">
-        <v>118.9365917639707</v>
+        <v>118.9365917639706</v>
       </c>
       <c r="J38" t="n">
-        <v>277.2866545754686</v>
+        <v>277.2866545754685</v>
       </c>
       <c r="K38" t="n">
-        <v>514.6123507107056</v>
+        <v>514.6123507107055</v>
       </c>
       <c r="L38" t="n">
-        <v>809.0358625400456</v>
+        <v>809.0358625400455</v>
       </c>
       <c r="M38" t="n">
-        <v>1136.638748787554</v>
+        <v>1136.638748787553</v>
       </c>
       <c r="N38" t="n">
         <v>1469.542592232819</v>
@@ -7201,25 +7201,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S38" t="n">
-        <v>2330.585524857985</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T38" t="n">
-        <v>2330.585524857985</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="U38" t="n">
-        <v>2071.515509741417</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="V38" t="n">
-        <v>1708.898559675244</v>
+        <v>2008.242287111879</v>
       </c>
       <c r="W38" t="n">
-        <v>1304.043105086277</v>
+        <v>1603.386832522913</v>
       </c>
       <c r="X38" t="n">
-        <v>884.9006416655876</v>
+        <v>1603.386832522913</v>
       </c>
       <c r="Y38" t="n">
-        <v>884.9006416655876</v>
+        <v>1603.386832522913</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>79.31614662250912</v>
       </c>
       <c r="H39" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I39" t="n">
-        <v>81.78656726718472</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J39" t="n">
         <v>176.0987798711818</v>
@@ -7262,7 +7262,7 @@
         <v>554.0393962029324</v>
       </c>
       <c r="M39" t="n">
-        <v>806.9717819850647</v>
+        <v>806.9717819850646</v>
       </c>
       <c r="N39" t="n">
         <v>1066.598535395047</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>584.1532079235276</v>
+        <v>626.6298353008929</v>
       </c>
       <c r="C40" t="n">
-        <v>584.1532079235276</v>
+        <v>454.0681237841178</v>
       </c>
       <c r="D40" t="n">
-        <v>584.1532079235276</v>
+        <v>393.8822425310676</v>
       </c>
       <c r="E40" t="n">
-        <v>584.1532079235276</v>
+        <v>224.1242387818048</v>
       </c>
       <c r="F40" t="n">
-        <v>407.4461538852838</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G40" t="n">
-        <v>242.7087659062011</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I40" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J40" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K40" t="n">
-        <v>565.1557171556775</v>
+        <v>478.5760319909876</v>
       </c>
       <c r="L40" t="n">
-        <v>1107.789008070307</v>
+        <v>602.999441137656</v>
       </c>
       <c r="M40" t="n">
-        <v>1694.576669271875</v>
+        <v>1189.787102339224</v>
       </c>
       <c r="N40" t="n">
-        <v>1896.439871337763</v>
+        <v>1760.11361041101</v>
       </c>
       <c r="O40" t="n">
-        <v>2014.731125184675</v>
+        <v>2182.923900049007</v>
       </c>
       <c r="P40" t="n">
-        <v>2115.949728296286</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q40" t="n">
         <v>2354.221017386493</v>
@@ -7359,25 +7359,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S40" t="n">
-        <v>2226.498790017748</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T40" t="n">
-        <v>1984.26776984795</v>
+        <v>2128.628217008255</v>
       </c>
       <c r="U40" t="n">
-        <v>1705.881344755333</v>
+        <v>1850.241791915637</v>
       </c>
       <c r="V40" t="n">
-        <v>1418.925836625763</v>
+        <v>1563.286283786068</v>
       </c>
       <c r="W40" t="n">
-        <v>1146.899432212055</v>
+        <v>1291.259879372359</v>
       </c>
       <c r="X40" t="n">
-        <v>901.507677545467</v>
+        <v>1045.868124705772</v>
       </c>
       <c r="Y40" t="n">
-        <v>674.0880068595752</v>
+        <v>818.44845401988</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>716.5463881025128</v>
+        <v>1783.11161681819</v>
       </c>
       <c r="C41" t="n">
-        <v>716.5463881025128</v>
+        <v>1344.969144001614</v>
       </c>
       <c r="D41" t="n">
-        <v>716.5463881025128</v>
+        <v>909.0593591760581</v>
       </c>
       <c r="E41" t="n">
-        <v>716.5463881025128</v>
+        <v>475.2846143343533</v>
       </c>
       <c r="F41" t="n">
-        <v>716.5463881025128</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G41" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H41" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I41" t="n">
-        <v>118.9365917639711</v>
+        <v>118.9365917639706</v>
       </c>
       <c r="J41" t="n">
-        <v>277.286654575469</v>
+        <v>277.2866545754684</v>
       </c>
       <c r="K41" t="n">
-        <v>514.612350710706</v>
+        <v>514.6123507107054</v>
       </c>
       <c r="L41" t="n">
-        <v>809.0358625400461</v>
+        <v>809.0358625400454</v>
       </c>
       <c r="M41" t="n">
-        <v>1136.638748787554</v>
+        <v>1136.638748787553</v>
       </c>
       <c r="N41" t="n">
         <v>1469.542592232819</v>
@@ -7441,22 +7441,22 @@
         <v>2330.585524857985</v>
       </c>
       <c r="T41" t="n">
-        <v>2118.851283005808</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="U41" t="n">
-        <v>1859.781267889241</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="V41" t="n">
-        <v>1859.781267889241</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="W41" t="n">
-        <v>1859.781267889241</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="X41" t="n">
-        <v>1440.638804468551</v>
+        <v>2209.411187303098</v>
       </c>
       <c r="Y41" t="n">
-        <v>1032.352680768205</v>
+        <v>2209.411187303098</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>79.31614662250912</v>
       </c>
       <c r="H42" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I42" t="n">
-        <v>81.78656726718472</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J42" t="n">
-        <v>176.0987798711818</v>
+        <v>168.6788003306395</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2933730396216</v>
+        <v>329.8733934990793</v>
       </c>
       <c r="L42" t="n">
-        <v>554.0393962029324</v>
+        <v>546.61941666239</v>
       </c>
       <c r="M42" t="n">
-        <v>806.9717819850647</v>
+        <v>799.5518024445222</v>
       </c>
       <c r="N42" t="n">
-        <v>1066.598535395047</v>
+        <v>1059.178555854504</v>
       </c>
       <c r="O42" t="n">
-        <v>1304.1062925618</v>
+        <v>1296.686313021258</v>
       </c>
       <c r="P42" t="n">
-        <v>1494.727206741867</v>
+        <v>1487.307227201325</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.152239731363</v>
+        <v>1614.73226019082</v>
       </c>
       <c r="R42" t="n">
         <v>1676.710983630873</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.049962221739</v>
+        <v>626.6298353008929</v>
       </c>
       <c r="C43" t="n">
-        <v>687.049962221739</v>
+        <v>454.0681237841178</v>
       </c>
       <c r="D43" t="n">
-        <v>521.1719694232617</v>
+        <v>393.8822425310676</v>
       </c>
       <c r="E43" t="n">
-        <v>521.1719694232617</v>
+        <v>224.1242387818048</v>
       </c>
       <c r="F43" t="n">
-        <v>344.4649153850179</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G43" t="n">
-        <v>179.7275274059352</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H43" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I43" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J43" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K43" t="n">
-        <v>565.1557171556775</v>
+        <v>203.817577419852</v>
       </c>
       <c r="L43" t="n">
-        <v>834.0776112517116</v>
+        <v>328.2409865665204</v>
       </c>
       <c r="M43" t="n">
-        <v>1420.86527245328</v>
+        <v>906.4441140401955</v>
       </c>
       <c r="N43" t="n">
-        <v>1548.932977367421</v>
+        <v>1476.770622111982</v>
       </c>
       <c r="O43" t="n">
-        <v>1667.224231214333</v>
+        <v>2014.731125184675</v>
       </c>
       <c r="P43" t="n">
         <v>2115.949728296286</v>
@@ -7596,25 +7596,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S43" t="n">
-        <v>2239.460745379912</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T43" t="n">
-        <v>1997.229725210113</v>
+        <v>2128.628217008255</v>
       </c>
       <c r="U43" t="n">
-        <v>1718.843300117496</v>
+        <v>1850.241791915637</v>
       </c>
       <c r="V43" t="n">
-        <v>1431.887791987927</v>
+        <v>1563.286283786068</v>
       </c>
       <c r="W43" t="n">
-        <v>1159.861387574218</v>
+        <v>1291.259879372359</v>
       </c>
       <c r="X43" t="n">
-        <v>914.4696329076307</v>
+        <v>1045.868124705772</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.049962221739</v>
+        <v>818.44845401988</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1144.413817693305</v>
+        <v>1590.598645744645</v>
       </c>
       <c r="C44" t="n">
-        <v>1144.413817693305</v>
+        <v>1152.456172928068</v>
       </c>
       <c r="D44" t="n">
-        <v>1144.413817693305</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="E44" t="n">
-        <v>1144.413817693305</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="F44" t="n">
         <v>716.5463881025128</v>
@@ -7642,7 +7642,7 @@
         <v>317.0521513059672</v>
       </c>
       <c r="H44" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I44" t="n">
         <v>118.9365917639705</v>
@@ -7654,10 +7654,10 @@
         <v>514.6123507107056</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0358625400459</v>
+        <v>809.0358625400456</v>
       </c>
       <c r="M44" t="n">
-        <v>1136.638748787554</v>
+        <v>1136.638748787553</v>
       </c>
       <c r="N44" t="n">
         <v>1469.542592232819</v>
@@ -7675,25 +7675,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S44" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="T44" t="n">
-        <v>2159.124995325877</v>
+        <v>2330.585524857985</v>
       </c>
       <c r="U44" t="n">
-        <v>1900.054980209309</v>
+        <v>2071.515509741417</v>
       </c>
       <c r="V44" t="n">
-        <v>1552.699941393651</v>
+        <v>1708.898559675243</v>
       </c>
       <c r="W44" t="n">
-        <v>1552.699941393651</v>
+        <v>1590.598645744645</v>
       </c>
       <c r="X44" t="n">
-        <v>1552.699941393651</v>
+        <v>1590.598645744645</v>
       </c>
       <c r="Y44" t="n">
-        <v>1144.413817693305</v>
+        <v>1590.598645744645</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>79.31614662250912</v>
       </c>
       <c r="H45" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I45" t="n">
-        <v>74.36658772664222</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J45" t="n">
-        <v>168.6788003306393</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K45" t="n">
-        <v>329.8733934990791</v>
+        <v>337.2933730396216</v>
       </c>
       <c r="L45" t="n">
-        <v>546.6194166623899</v>
+        <v>554.0393962029324</v>
       </c>
       <c r="M45" t="n">
-        <v>799.5518024445222</v>
+        <v>806.9717819850646</v>
       </c>
       <c r="N45" t="n">
-        <v>1059.178555854504</v>
+        <v>1066.598535395047</v>
       </c>
       <c r="O45" t="n">
-        <v>1296.686313021258</v>
+        <v>1304.1062925618</v>
       </c>
       <c r="P45" t="n">
-        <v>1487.307227201325</v>
+        <v>1494.727206741867</v>
       </c>
       <c r="Q45" t="n">
-        <v>1614.73226019082</v>
+        <v>1622.152239731363</v>
       </c>
       <c r="R45" t="n">
         <v>1676.710983630873</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>626.6298353008933</v>
+        <v>727.3013310761399</v>
       </c>
       <c r="C46" t="n">
-        <v>626.6298353008933</v>
+        <v>554.7396195593649</v>
       </c>
       <c r="D46" t="n">
-        <v>584.1532079235276</v>
+        <v>388.8616267608876</v>
       </c>
       <c r="E46" t="n">
-        <v>584.1532079235276</v>
+        <v>388.8616267608876</v>
       </c>
       <c r="F46" t="n">
-        <v>407.4461538852838</v>
+        <v>212.1545727226438</v>
       </c>
       <c r="G46" t="n">
-        <v>242.7087659062011</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I46" t="n">
-        <v>47.41718474356107</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="J46" t="n">
-        <v>106.5856360663959</v>
+        <v>193.1653212310857</v>
       </c>
       <c r="K46" t="n">
-        <v>203.817577419852</v>
+        <v>290.3972625845419</v>
       </c>
       <c r="L46" t="n">
-        <v>328.2409865665205</v>
+        <v>414.8206717312103</v>
       </c>
       <c r="M46" t="n">
-        <v>915.0286477680887</v>
+        <v>1001.608332932778</v>
       </c>
       <c r="N46" t="n">
-        <v>1129.26372814164</v>
+        <v>1571.934841004565</v>
       </c>
       <c r="O46" t="n">
-        <v>1667.224231214333</v>
+        <v>2109.895344077258</v>
       </c>
       <c r="P46" t="n">
-        <v>2115.949728296286</v>
+        <v>2211.113947188868</v>
       </c>
       <c r="Q46" t="n">
         <v>2354.221017386493</v>
@@ -7839,19 +7839,19 @@
         <v>2128.628217008255</v>
       </c>
       <c r="U46" t="n">
-        <v>1850.241791915638</v>
+        <v>1850.241791915637</v>
       </c>
       <c r="V46" t="n">
         <v>1563.286283786068</v>
       </c>
       <c r="W46" t="n">
-        <v>1291.25987937236</v>
+        <v>1291.259879372359</v>
       </c>
       <c r="X46" t="n">
-        <v>1045.868124705772</v>
+        <v>1146.539620481019</v>
       </c>
       <c r="Y46" t="n">
-        <v>818.4484540198805</v>
+        <v>919.119949795127</v>
       </c>
     </row>
   </sheetData>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>11.14042390876191</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="R9" t="n">
-        <v>36.94091896479665</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>37.13925100285415</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>34.45295969778793</v>
       </c>
       <c r="L10" t="n">
-        <v>32.53395007869804</v>
+        <v>32.53395007869803</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.9116767238302828</v>
       </c>
       <c r="N10" t="n">
-        <v>32.27675768710763</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>32.96672057477706</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>7.260409162587678</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>110.8352218501313</v>
+        <v>13.06010994216183</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9093,16 +9093,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>110.8352218501313</v>
+        <v>183.7264897849188</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>161.2204455923628</v>
       </c>
       <c r="M19" t="n">
-        <v>88.01749060582506</v>
+        <v>460.2026481875401</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>460.2026481875402</v>
       </c>
       <c r="N22" t="n">
-        <v>182.2523812416659</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>161.2204455923625</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>5.730076405535328</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.730076405534874</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9795,19 +9795,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0.09065431347778485</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>376.0621247563065</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>71.40724663928916</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.730076405534874</v>
+        <v>544.8367208833929</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0.09065431347778485</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>376.0621247563065</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>5.730076405534874</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>5.730076405535328</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.57392643388789</v>
+        <v>0.09065431347795538</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>14.56035235005368</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>430.8209235028737</v>
       </c>
       <c r="P32" t="n">
-        <v>5.730076405534874</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.09065431347778485</v>
+        <v>0.09065431347795538</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>460.2026481875401</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>183.7264897849188</v>
+        <v>307.5949856475604</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>460.2026481875403</v>
+        <v>460.2026481875401</v>
       </c>
       <c r="N40" t="n">
-        <v>74.54090621388536</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>307.5949856475604</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>145.95806560542</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>460.2026481875403</v>
+        <v>451.5314019977493</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11463,19 +11463,19 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>460.2026481875403</v>
+        <v>460.2026481875401</v>
       </c>
       <c r="N46" t="n">
-        <v>87.03775298930282</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>73.7662181532819</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>395.49929442858</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>168.4293196422087</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>306.7521167770946</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.5669697859821</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>101.8075127415338</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6025608416909</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>71.05365497185659</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>89.4794793687733</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -23563,7 +23563,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I16" t="n">
         <v>62.35142611526319</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>104.6351904299726</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>198.6288792440853</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>269.7947813372089</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.616899433655</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.6305093191758</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>148.4233887629138</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>103.5059916587722</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I19" t="n">
-        <v>62.35142611526319</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.49929442858</v>
+        <v>252.7548449974352</v>
       </c>
       <c r="H20" t="n">
         <v>266.9386168967821</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>200.7485905657295</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>130.9872392357504</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.35142611526319</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6025608416909</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>44.2921986790158</v>
       </c>
       <c r="X22" t="n">
-        <v>78.36241063570387</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>79.91401347926916</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>55.58841364697741</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>61.25544937618662</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>266.9386168967821</v>
+        <v>99.53440475976075</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H29" t="n">
         <v>266.9386168967821</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.616899433655</v>
@@ -24745,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>283.7298734037381</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>351.6903094669096</v>
       </c>
     </row>
     <row r="30">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>236.3847352087067</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>91.81463208124137</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.616899433655</v>
@@ -24976,13 +24976,13 @@
         <v>256.4793149654022</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25159,7 +25159,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>311.2456324976916</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>30.16287685750478</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.35142611526319</v>
+        <v>58.1651458128861</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8087099681002</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>202.4700900853629</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,13 +25393,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>31.87906201778145</v>
+        <v>21.27739805422283</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -25408,7 +25408,7 @@
         <v>395.49929442858</v>
       </c>
       <c r="H38" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T38" t="n">
         <v>209.616899433655</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.8649815851101</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>104.6351904299729</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.35142611526319</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>109.3883450410237</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25693,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>294.9884446071445</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>104.6351904299729</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I43" t="n">
         <v>62.35142611526319</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>12.83233580854196</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,16 +25867,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>15.10929213801103</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>283.6899852517848</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>122.1673517669005</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.35142611526319</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>99.66478081749452</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>385275.0963088597</v>
+        <v>385275.0963088596</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>385275.0963088596</v>
+        <v>385275.0963088597</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>300230.6409030206</v>
+        <v>300230.6409030205</v>
       </c>
     </row>
     <row r="14">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>444876.937956323</v>
+        <v>444876.9379563229</v>
       </c>
       <c r="C2" t="n">
-        <v>444876.9379563229</v>
+        <v>444876.9379563228</v>
       </c>
       <c r="D2" t="n">
         <v>455725.2219068474</v>
       </c>
       <c r="E2" t="n">
-        <v>268332.1744535595</v>
+        <v>268332.1744535596</v>
       </c>
       <c r="F2" t="n">
         <v>268332.1744535596</v>
@@ -26331,31 +26331,31 @@
         <v>268332.1744535596</v>
       </c>
       <c r="H2" t="n">
-        <v>268332.1744535596</v>
+        <v>268332.1744535595</v>
       </c>
       <c r="I2" t="n">
+        <v>321518.716002384</v>
+      </c>
+      <c r="J2" t="n">
+        <v>321518.7160023841</v>
+      </c>
+      <c r="K2" t="n">
         <v>321518.7160023839</v>
       </c>
-      <c r="J2" t="n">
-        <v>321518.716002384</v>
-      </c>
-      <c r="K2" t="n">
-        <v>321518.716002384</v>
-      </c>
       <c r="L2" t="n">
-        <v>321518.716002384</v>
+        <v>321518.7160023839</v>
       </c>
       <c r="M2" t="n">
         <v>268332.1744535596</v>
       </c>
       <c r="N2" t="n">
-        <v>268332.1744535596</v>
+        <v>268332.1744535595</v>
       </c>
       <c r="O2" t="n">
         <v>268332.1744535596</v>
       </c>
       <c r="P2" t="n">
-        <v>268332.1744535596</v>
+        <v>268332.1744535595</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>40883.89454475579</v>
       </c>
       <c r="E3" t="n">
-        <v>514944.3509551202</v>
+        <v>514944.3509551201</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41386.09437926606</v>
+        <v>41386.09437926609</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>10456.45543630176</v>
       </c>
       <c r="M3" t="n">
-        <v>98626.66051350023</v>
+        <v>98626.6605135001</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>294349.6920770006</v>
@@ -26435,19 +26435,19 @@
         <v>16583.60067171038</v>
       </c>
       <c r="H4" t="n">
-        <v>16583.60067171038</v>
+        <v>16583.60067171037</v>
       </c>
       <c r="I4" t="n">
-        <v>45408.6587501708</v>
+        <v>45408.65875017083</v>
       </c>
       <c r="J4" t="n">
-        <v>45408.6587501708</v>
+        <v>45408.65875017085</v>
       </c>
       <c r="K4" t="n">
-        <v>45408.6587501708</v>
+        <v>45408.65875017082</v>
       </c>
       <c r="L4" t="n">
-        <v>45408.65875017081</v>
+        <v>45408.65875017082</v>
       </c>
       <c r="M4" t="n">
         <v>16583.60067171038</v>
@@ -26459,7 +26459,7 @@
         <v>16583.60067171038</v>
       </c>
       <c r="P4" t="n">
-        <v>16583.60067171038</v>
+        <v>16583.60067171037</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112518.6216444902</v>
+        <v>112486.7149269884</v>
       </c>
       <c r="C6" t="n">
-        <v>112518.62164449</v>
+        <v>112486.7149269884</v>
       </c>
       <c r="D6" t="n">
         <v>83638.06547488089</v>
       </c>
       <c r="E6" t="n">
-        <v>-309452.327913009</v>
+        <v>-310003.4839349303</v>
       </c>
       <c r="F6" t="n">
-        <v>205492.0230421112</v>
+        <v>204940.8670201897</v>
       </c>
       <c r="G6" t="n">
-        <v>205492.0230421112</v>
+        <v>204940.8670201897</v>
       </c>
       <c r="H6" t="n">
-        <v>205492.0230421112</v>
+        <v>204940.8670201897</v>
       </c>
       <c r="I6" t="n">
-        <v>179004.9231298607</v>
+        <v>178610.1981124947</v>
       </c>
       <c r="J6" t="n">
-        <v>220391.0175091269</v>
+        <v>219996.2924917609</v>
       </c>
       <c r="K6" t="n">
-        <v>220391.0175091269</v>
+        <v>219996.2924917607</v>
       </c>
       <c r="L6" t="n">
-        <v>209934.5620728251</v>
+        <v>209539.8370554589</v>
       </c>
       <c r="M6" t="n">
-        <v>106865.3625286109</v>
+        <v>106314.2065066896</v>
       </c>
       <c r="N6" t="n">
-        <v>205492.0230421112</v>
+        <v>204940.8670201897</v>
       </c>
       <c r="O6" t="n">
-        <v>205492.0230421112</v>
+        <v>204940.8670201897</v>
       </c>
       <c r="P6" t="n">
-        <v>205492.0230421112</v>
+        <v>204940.8670201897</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042022</v>
       </c>
       <c r="F3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042022</v>
       </c>
       <c r="G3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="H3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="I3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="J3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="K3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="L3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042021</v>
       </c>
       <c r="M3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042022</v>
       </c>
       <c r="N3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042022</v>
       </c>
       <c r="O3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042022</v>
       </c>
       <c r="P3" t="n">
-        <v>468.7839603042023</v>
+        <v>468.7839603042022</v>
       </c>
     </row>
     <row r="4">
@@ -26801,13 +26801,13 @@
         <v>592.7148092945132</v>
       </c>
       <c r="F4" t="n">
-        <v>592.7148092945133</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="G4" t="n">
-        <v>592.7148092945133</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="H4" t="n">
-        <v>592.7148092945133</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="I4" t="n">
         <v>748.3478521127415</v>
@@ -26822,16 +26822,16 @@
         <v>748.3478521127415</v>
       </c>
       <c r="M4" t="n">
-        <v>592.7148092945133</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="N4" t="n">
-        <v>592.7148092945133</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="O4" t="n">
-        <v>592.7148092945133</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="P4" t="n">
-        <v>592.7148092945133</v>
+        <v>592.7148092945132</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>551.3998062469858</v>
+        <v>551.3998062469857</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.6330428182282</v>
+        <v>155.6330428182283</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>41.3150030475274</v>
       </c>
       <c r="M4" t="n">
-        <v>395.7667634287581</v>
+        <v>395.7667634287575</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>551.3998062469858</v>
+        <v>551.3998062469857</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27940,10 +27940,10 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>56.11184910989698</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247265</v>
+        <v>45.48263858358116</v>
       </c>
       <c r="G9" t="n">
         <v>43.14578572036749</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>61.51230405132225</v>
+        <v>20.19730100379491</v>
       </c>
       <c r="T9" t="n">
         <v>128.5928940176698</v>
@@ -28013,16 +28013,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>131.670169027508</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>122.5612962059744</v>
@@ -28031,7 +28031,7 @@
         <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>44.68216206888225</v>
+        <v>44.68216206888224</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
-        <v>243.1682919906331</v>
+        <v>206.778037306371</v>
       </c>
       <c r="U10" t="n">
         <v>275.6454491228296</v>
@@ -31758,7 +31758,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I11" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J11" t="n">
         <v>159.9495583954524</v>
@@ -31773,10 +31773,10 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N11" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O11" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P11" t="n">
         <v>271.0018873233956</v>
@@ -31791,7 +31791,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T11" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U11" t="n">
         <v>0.1507646907511001</v>
@@ -31837,16 +31837,16 @@
         <v>9.738323401791071</v>
       </c>
       <c r="I12" t="n">
-        <v>27.22161917482946</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J12" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K12" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L12" t="n">
-        <v>218.9353769326371</v>
+        <v>211.4404481038065</v>
       </c>
       <c r="M12" t="n">
         <v>255.4872583657902</v>
@@ -31858,19 +31858,19 @@
         <v>239.9068254209628</v>
       </c>
       <c r="P12" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q12" t="n">
         <v>128.7121545348444</v>
       </c>
       <c r="R12" t="n">
-        <v>62.60477115156877</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S12" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T12" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U12" t="n">
         <v>0.06633735287323619</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.8453481251387251</v>
       </c>
       <c r="H13" t="n">
         <v>7.515913330778853</v>
       </c>
       <c r="I13" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J13" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K13" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L13" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M13" t="n">
         <v>132.5121611069731</v>
@@ -31934,16 +31934,16 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O13" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P13" t="n">
         <v>102.2410132440509</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R13" t="n">
-        <v>38.00992569941941</v>
+        <v>38.0099256994194</v>
       </c>
       <c r="S13" t="n">
         <v>14.73211232628123</v>
@@ -31952,7 +31952,7 @@
         <v>3.611941989229098</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.04610989773483961</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I14" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J14" t="n">
         <v>159.9495583954524</v>
@@ -32010,10 +32010,10 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N14" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O14" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P14" t="n">
         <v>271.0018873233956</v>
@@ -32028,7 +32028,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T14" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U14" t="n">
         <v>0.1507646907511001</v>
@@ -32074,10 +32074,10 @@
         <v>9.738323401791071</v>
       </c>
       <c r="I15" t="n">
-        <v>27.22161917482946</v>
+        <v>27.22161917482968</v>
       </c>
       <c r="J15" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K15" t="n">
         <v>162.8228213822624</v>
@@ -32095,19 +32095,19 @@
         <v>239.9068254209628</v>
       </c>
       <c r="P15" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q15" t="n">
         <v>128.7121545348444</v>
       </c>
       <c r="R15" t="n">
-        <v>62.60477115156877</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S15" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T15" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U15" t="n">
         <v>0.06633735287323619</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.8453481251387251</v>
       </c>
       <c r="H16" t="n">
         <v>7.515913330778853</v>
       </c>
       <c r="I16" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J16" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K16" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L16" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M16" t="n">
         <v>132.5121611069731</v>
@@ -32171,16 +32171,16 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O16" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P16" t="n">
         <v>102.2410132440509</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R16" t="n">
-        <v>38.00992569941941</v>
+        <v>38.0099256994194</v>
       </c>
       <c r="S16" t="n">
         <v>14.73211232628123</v>
@@ -32189,7 +32189,7 @@
         <v>3.611941989229098</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.04610989773483961</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,25 +32232,25 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I17" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J17" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K17" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L17" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M17" t="n">
-        <v>330.9120063106141</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N17" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O17" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P17" t="n">
         <v>271.0018873233956</v>
@@ -32265,7 +32265,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T17" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U17" t="n">
         <v>0.1507646907511001</v>
@@ -32308,13 +32308,13 @@
         <v>1.00832776367319</v>
       </c>
       <c r="H18" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I18" t="n">
-        <v>27.22161917482946</v>
+        <v>27.22161917482989</v>
       </c>
       <c r="J18" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K18" t="n">
         <v>162.8228213822624</v>
@@ -32323,31 +32323,31 @@
         <v>218.9353769326371</v>
       </c>
       <c r="M18" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N18" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O18" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P18" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q18" t="n">
         <v>128.7121545348444</v>
       </c>
       <c r="R18" t="n">
-        <v>62.60477115156877</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S18" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T18" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H19" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I19" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J19" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K19" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L19" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M19" t="n">
         <v>132.5121611069731</v>
@@ -32408,25 +32408,25 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O19" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P19" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R19" t="n">
-        <v>38.00992569941941</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S19" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T19" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,25 +32469,25 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I20" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J20" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K20" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L20" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M20" t="n">
-        <v>330.9120063106141</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N20" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O20" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P20" t="n">
         <v>271.0018873233956</v>
@@ -32502,7 +32502,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T20" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U20" t="n">
         <v>0.1507646907511001</v>
@@ -32545,46 +32545,46 @@
         <v>1.00832776367319</v>
       </c>
       <c r="H21" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I21" t="n">
-        <v>34.71654800366026</v>
+        <v>27.22161917482989</v>
       </c>
       <c r="J21" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K21" t="n">
-        <v>155.3278925534316</v>
+        <v>162.8228213822624</v>
       </c>
       <c r="L21" t="n">
         <v>218.9353769326371</v>
       </c>
       <c r="M21" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N21" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O21" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P21" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q21" t="n">
         <v>128.7121545348444</v>
       </c>
       <c r="R21" t="n">
-        <v>62.60477115156877</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S21" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T21" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H22" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I22" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J22" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K22" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L22" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M22" t="n">
         <v>132.5121611069731</v>
@@ -32645,25 +32645,25 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O22" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P22" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R22" t="n">
-        <v>38.00992569941941</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S22" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T22" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,25 +32706,25 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I23" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J23" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K23" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L23" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M23" t="n">
-        <v>330.9120063106141</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N23" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O23" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P23" t="n">
         <v>271.0018873233956</v>
@@ -32739,7 +32739,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T23" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U23" t="n">
         <v>0.1507646907511001</v>
@@ -32782,13 +32782,13 @@
         <v>1.00832776367319</v>
       </c>
       <c r="H24" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I24" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J24" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K24" t="n">
         <v>162.8228213822624</v>
@@ -32797,31 +32797,31 @@
         <v>218.9353769326371</v>
       </c>
       <c r="M24" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N24" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O24" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P24" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.7121545348444</v>
+        <v>121.217225706014</v>
       </c>
       <c r="R24" t="n">
-        <v>55.1098423227379</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S24" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T24" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H25" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I25" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J25" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K25" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L25" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M25" t="n">
         <v>132.5121611069731</v>
@@ -32882,25 +32882,25 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O25" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P25" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R25" t="n">
-        <v>38.00992569941941</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S25" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T25" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,25 +32943,25 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I26" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J26" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K26" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L26" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M26" t="n">
-        <v>330.9120063106141</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N26" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O26" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P26" t="n">
         <v>271.0018873233956</v>
@@ -32976,7 +32976,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T26" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U26" t="n">
         <v>0.1507646907511001</v>
@@ -33019,13 +33019,13 @@
         <v>1.00832776367319</v>
       </c>
       <c r="H27" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I27" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J27" t="n">
-        <v>87.76993238732813</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K27" t="n">
         <v>162.8228213822624</v>
@@ -33034,31 +33034,31 @@
         <v>218.9353769326371</v>
       </c>
       <c r="M27" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N27" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O27" t="n">
-        <v>239.9068254209628</v>
+        <v>232.4118965921325</v>
       </c>
       <c r="P27" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q27" t="n">
         <v>128.7121545348444</v>
       </c>
       <c r="R27" t="n">
-        <v>62.60477115156877</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S27" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T27" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H28" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I28" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J28" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K28" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L28" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M28" t="n">
         <v>132.5121611069731</v>
@@ -33119,25 +33119,25 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O28" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P28" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R28" t="n">
-        <v>38.00992569941941</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S28" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T28" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,25 +33180,25 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I29" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J29" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K29" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L29" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M29" t="n">
-        <v>330.9120063106141</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N29" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O29" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P29" t="n">
         <v>271.0018873233956</v>
@@ -33213,7 +33213,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T29" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U29" t="n">
         <v>0.1507646907511001</v>
@@ -33256,13 +33256,13 @@
         <v>1.00832776367319</v>
       </c>
       <c r="H30" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I30" t="n">
-        <v>27.22161917482968</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J30" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K30" t="n">
         <v>162.8228213822624</v>
@@ -33271,31 +33271,31 @@
         <v>218.9353769326371</v>
       </c>
       <c r="M30" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N30" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O30" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P30" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.7121545348444</v>
+        <v>121.217225706014</v>
       </c>
       <c r="R30" t="n">
-        <v>62.60477115156877</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S30" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T30" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H31" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I31" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J31" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K31" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L31" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M31" t="n">
         <v>132.5121611069731</v>
@@ -33356,25 +33356,25 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O31" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P31" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R31" t="n">
-        <v>38.00992569941941</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S31" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T31" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,25 +33417,25 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I32" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J32" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K32" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L32" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M32" t="n">
-        <v>330.9120063106141</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N32" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O32" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P32" t="n">
         <v>271.0018873233956</v>
@@ -33450,7 +33450,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T32" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U32" t="n">
         <v>0.1507646907511001</v>
@@ -33493,46 +33493,46 @@
         <v>1.00832776367319</v>
       </c>
       <c r="H33" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I33" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J33" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K33" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L33" t="n">
-        <v>211.4404481038066</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M33" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N33" t="n">
-        <v>262.2492458686688</v>
+        <v>254.7543170398383</v>
       </c>
       <c r="O33" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P33" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q33" t="n">
         <v>128.7121545348444</v>
       </c>
       <c r="R33" t="n">
-        <v>62.60477115156877</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S33" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T33" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H34" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J34" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K34" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L34" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M34" t="n">
         <v>132.5121611069731</v>
@@ -33593,25 +33593,25 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O34" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P34" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R34" t="n">
-        <v>38.00992569941941</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S34" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T34" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I35" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J35" t="n">
         <v>159.9495583954524</v>
@@ -33669,10 +33669,10 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N35" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O35" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P35" t="n">
         <v>271.0018873233956</v>
@@ -33687,7 +33687,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T35" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U35" t="n">
         <v>0.1507646907511001</v>
@@ -33736,10 +33736,10 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J36" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K36" t="n">
-        <v>155.3278925534316</v>
+        <v>162.8228213822624</v>
       </c>
       <c r="L36" t="n">
         <v>218.9353769326371</v>
@@ -33754,19 +33754,19 @@
         <v>239.9068254209628</v>
       </c>
       <c r="P36" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q36" t="n">
         <v>128.7121545348444</v>
       </c>
       <c r="R36" t="n">
-        <v>62.60477115156877</v>
+        <v>55.10984232273813</v>
       </c>
       <c r="S36" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T36" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U36" t="n">
         <v>0.06633735287323619</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.8453481251387251</v>
       </c>
       <c r="H37" t="n">
         <v>7.515913330778853</v>
       </c>
       <c r="I37" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J37" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K37" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L37" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M37" t="n">
         <v>132.5121611069731</v>
@@ -33830,16 +33830,16 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O37" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P37" t="n">
         <v>102.2410132440509</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R37" t="n">
-        <v>38.00992569941941</v>
+        <v>38.0099256994194</v>
       </c>
       <c r="S37" t="n">
         <v>14.73211232628123</v>
@@ -33848,7 +33848,7 @@
         <v>3.611941989229098</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.04610989773483961</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I38" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J38" t="n">
         <v>159.9495583954524</v>
@@ -33906,10 +33906,10 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N38" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O38" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P38" t="n">
         <v>271.0018873233956</v>
@@ -33924,7 +33924,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T38" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U38" t="n">
         <v>0.1507646907511001</v>
@@ -33973,7 +33973,7 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J39" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K39" t="n">
         <v>162.8228213822624</v>
@@ -33991,19 +33991,19 @@
         <v>239.9068254209628</v>
       </c>
       <c r="P39" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q39" t="n">
         <v>128.7121545348444</v>
       </c>
       <c r="R39" t="n">
-        <v>55.1098423227379</v>
+        <v>55.10984232273813</v>
       </c>
       <c r="S39" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T39" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U39" t="n">
         <v>0.06633735287323619</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.8453481251387251</v>
       </c>
       <c r="H40" t="n">
         <v>7.515913330778853</v>
       </c>
       <c r="I40" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J40" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K40" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L40" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M40" t="n">
         <v>132.5121611069731</v>
@@ -34067,16 +34067,16 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O40" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P40" t="n">
         <v>102.2410132440509</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R40" t="n">
-        <v>38.00992569941941</v>
+        <v>38.0099256994194</v>
       </c>
       <c r="S40" t="n">
         <v>14.73211232628123</v>
@@ -34085,7 +34085,7 @@
         <v>3.611941989229098</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.04610989773483961</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I41" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J41" t="n">
         <v>159.9495583954524</v>
@@ -34143,10 +34143,10 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N41" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O41" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P41" t="n">
         <v>271.0018873233956</v>
@@ -34161,7 +34161,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T41" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U41" t="n">
         <v>0.1507646907511001</v>
@@ -34210,7 +34210,7 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J42" t="n">
-        <v>95.26486121615871</v>
+        <v>87.76993238732811</v>
       </c>
       <c r="K42" t="n">
         <v>162.8228213822624</v>
@@ -34228,19 +34228,19 @@
         <v>239.9068254209628</v>
       </c>
       <c r="P42" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q42" t="n">
         <v>128.7121545348444</v>
       </c>
       <c r="R42" t="n">
-        <v>55.1098423227379</v>
+        <v>62.60477115156876</v>
       </c>
       <c r="S42" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T42" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U42" t="n">
         <v>0.06633735287323619</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.8453481251387251</v>
       </c>
       <c r="H43" t="n">
         <v>7.515913330778853</v>
       </c>
       <c r="I43" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J43" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K43" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L43" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M43" t="n">
         <v>132.5121611069731</v>
@@ -34304,16 +34304,16 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O43" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P43" t="n">
         <v>102.2410132440509</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R43" t="n">
-        <v>38.00992569941941</v>
+        <v>38.0099256994194</v>
       </c>
       <c r="S43" t="n">
         <v>14.73211232628123</v>
@@ -34322,7 +34322,7 @@
         <v>3.611941989229098</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.04610989773483961</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>19.3002361144338</v>
       </c>
       <c r="I44" t="n">
-        <v>72.65444675227241</v>
+        <v>72.65444675227239</v>
       </c>
       <c r="J44" t="n">
         <v>159.9495583954524</v>
@@ -34380,10 +34380,10 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N44" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305711</v>
       </c>
       <c r="O44" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098679</v>
       </c>
       <c r="P44" t="n">
         <v>271.0018873233956</v>
@@ -34398,7 +34398,7 @@
         <v>42.94437988113371</v>
       </c>
       <c r="T44" t="n">
-        <v>8.249655422036763</v>
+        <v>8.249655422036762</v>
       </c>
       <c r="U44" t="n">
         <v>0.1507646907511001</v>
@@ -34444,10 +34444,10 @@
         <v>9.738323401791071</v>
       </c>
       <c r="I45" t="n">
-        <v>27.22161917482946</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J45" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K45" t="n">
         <v>162.8228213822624</v>
@@ -34465,19 +34465,19 @@
         <v>239.9068254209628</v>
       </c>
       <c r="P45" t="n">
-        <v>192.5463779596638</v>
+        <v>192.5463779596637</v>
       </c>
       <c r="Q45" t="n">
         <v>128.7121545348444</v>
       </c>
       <c r="R45" t="n">
-        <v>62.60477115156877</v>
+        <v>55.10984232273813</v>
       </c>
       <c r="S45" t="n">
         <v>18.72924596121033</v>
       </c>
       <c r="T45" t="n">
-        <v>4.064268486033601</v>
+        <v>4.0642684860336</v>
       </c>
       <c r="U45" t="n">
         <v>0.06633735287323619</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8453481251387253</v>
+        <v>0.8453481251387251</v>
       </c>
       <c r="H46" t="n">
         <v>7.515913330778853</v>
       </c>
       <c r="I46" t="n">
-        <v>25.42192361780822</v>
+        <v>25.42192361780821</v>
       </c>
       <c r="J46" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K46" t="n">
-        <v>98.21408217520825</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L46" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M46" t="n">
         <v>132.5121611069731</v>
@@ -34541,16 +34541,16 @@
         <v>129.3613180950925</v>
       </c>
       <c r="O46" t="n">
-        <v>119.486114996881</v>
+        <v>119.4861149968809</v>
       </c>
       <c r="P46" t="n">
         <v>102.2410132440509</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.78637800593454</v>
+        <v>70.78637800593452</v>
       </c>
       <c r="R46" t="n">
-        <v>38.00992569941941</v>
+        <v>38.0099256994194</v>
       </c>
       <c r="S46" t="n">
         <v>14.73211232628123</v>
@@ -34559,7 +34559,7 @@
         <v>3.611941989229098</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04610989773483962</v>
+        <v>0.04610989773483961</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>13.56600741041745</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
         <v>6.655986523460122</v>
@@ -35269,13 +35269,13 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408647</v>
+        <v>13.45287318408649</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.992889456329024</v>
+        <v>30.74728974356677</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>4.37408408273069</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.175752044673201</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739427</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M10" t="n">
-        <v>9.258389161154682</v>
+        <v>10.17006588498498</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752734</v>
+        <v>9.038245360419694</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752734</v>
+        <v>8.348282472750299</v>
       </c>
       <c r="P10" t="n">
-        <v>14.4038070283884</v>
+        <v>7.143397865800722</v>
       </c>
       <c r="Q10" t="n">
         <v>4.945718411146316</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J11" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K11" t="n">
-        <v>239.7229253891284</v>
+        <v>239.7229253891285</v>
       </c>
       <c r="L11" t="n">
-        <v>297.3974866963031</v>
+        <v>297.3974866963032</v>
       </c>
       <c r="M11" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106142</v>
       </c>
       <c r="N11" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305709</v>
       </c>
       <c r="O11" t="n">
-        <v>317.5269286098678</v>
+        <v>317.526928609868</v>
       </c>
       <c r="P11" t="n">
         <v>271.0018873233957</v>
@@ -35433,7 +35433,7 @@
         <v>203.5111312293484</v>
       </c>
       <c r="R11" t="n">
-        <v>118.3809063174226</v>
+        <v>118.3809063174222</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>27.22161917482946</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J12" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K12" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L12" t="n">
-        <v>218.9353769326372</v>
+        <v>211.4404481038065</v>
       </c>
       <c r="M12" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N12" t="n">
         <v>262.2492458686688</v>
@@ -35570,28 +35570,28 @@
         <v>147.2203398863885</v>
       </c>
       <c r="K13" t="n">
-        <v>375.7478746713049</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L13" t="n">
-        <v>548.1144352673024</v>
+        <v>125.6802112592611</v>
       </c>
       <c r="M13" t="n">
-        <v>243.3473829571044</v>
+        <v>145.5722710491349</v>
       </c>
       <c r="N13" t="n">
-        <v>129.3613180950924</v>
+        <v>576.0873818906931</v>
       </c>
       <c r="O13" t="n">
         <v>543.3944475481753</v>
       </c>
       <c r="P13" t="n">
-        <v>102.2410132440509</v>
+        <v>453.2580778605577</v>
       </c>
       <c r="Q13" t="n">
         <v>240.6780697880881</v>
       </c>
       <c r="R13" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773756</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J14" t="n">
-        <v>159.9495583954524</v>
+        <v>159.9495583954526</v>
       </c>
       <c r="K14" t="n">
-        <v>239.7229253891284</v>
+        <v>239.7229253891285</v>
       </c>
       <c r="L14" t="n">
-        <v>297.3974866963031</v>
+        <v>297.3974866963034</v>
       </c>
       <c r="M14" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106142</v>
       </c>
       <c r="N14" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305709</v>
       </c>
       <c r="O14" t="n">
-        <v>317.5269286098678</v>
+        <v>317.5269286098676</v>
       </c>
       <c r="P14" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q14" t="n">
         <v>203.5111312293484</v>
       </c>
       <c r="R14" t="n">
-        <v>118.3809063174226</v>
+        <v>118.3809063174222</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>27.22161917482946</v>
+        <v>27.22161917482968</v>
       </c>
       <c r="J15" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K15" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L15" t="n">
-        <v>218.9353769326372</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M15" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N15" t="n">
         <v>262.2492458686688</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>147.2203398863886</v>
+        <v>147.2203398863885</v>
       </c>
       <c r="K16" t="n">
         <v>375.7478746713048</v>
       </c>
       <c r="L16" t="n">
-        <v>548.1144352673024</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M16" t="n">
-        <v>243.3473829571044</v>
+        <v>316.2386508918919</v>
       </c>
       <c r="N16" t="n">
         <v>129.3613180950924</v>
       </c>
       <c r="O16" t="n">
-        <v>543.3944475481753</v>
+        <v>119.486114996881</v>
       </c>
       <c r="P16" t="n">
-        <v>102.2410132440509</v>
+        <v>453.2580778605577</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.6780697880886</v>
+        <v>240.6780697880881</v>
       </c>
       <c r="R16" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773756</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J17" t="n">
         <v>159.9495583954524</v>
       </c>
       <c r="K17" t="n">
-        <v>239.7229253891284</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L17" t="n">
         <v>297.3974866963031</v>
@@ -35895,13 +35895,13 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N17" t="n">
-        <v>336.2665085305714</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O17" t="n">
         <v>317.5269286098678</v>
       </c>
       <c r="P17" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q17" t="n">
         <v>203.5111312293484</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>27.22161917482946</v>
+        <v>27.22161917482989</v>
       </c>
       <c r="J18" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K18" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L18" t="n">
-        <v>218.9353769326372</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M18" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N18" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O18" t="n">
         <v>239.9068254209628</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>147.2203398863886</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K19" t="n">
-        <v>375.7478746713048</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L19" t="n">
-        <v>548.1144352673024</v>
+        <v>286.9006568516238</v>
       </c>
       <c r="M19" t="n">
-        <v>220.5296517127981</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="N19" t="n">
         <v>576.087381890693</v>
       </c>
       <c r="O19" t="n">
-        <v>119.486114996881</v>
+        <v>543.3944475481753</v>
       </c>
       <c r="P19" t="n">
         <v>102.2410132440509</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.6780697880886</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R19" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J20" t="n">
-        <v>159.9495583954525</v>
+        <v>159.9495583954522</v>
       </c>
       <c r="K20" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L20" t="n">
         <v>297.3974866963031</v>
@@ -36132,13 +36132,13 @@
         <v>330.9120063106141</v>
       </c>
       <c r="N20" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305709</v>
       </c>
       <c r="O20" t="n">
         <v>317.526928609868</v>
       </c>
       <c r="P20" t="n">
-        <v>271.0018873233957</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q20" t="n">
         <v>203.5111312293484</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.71654800366026</v>
+        <v>27.22161917482989</v>
       </c>
       <c r="J21" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K21" t="n">
-        <v>155.3278925534316</v>
+        <v>162.8228213822624</v>
       </c>
       <c r="L21" t="n">
-        <v>218.9353769326372</v>
+        <v>218.935376932637</v>
       </c>
       <c r="M21" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N21" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O21" t="n">
         <v>239.9068254209628</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>147.2203398863886</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K22" t="n">
-        <v>375.7478746713048</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L22" t="n">
         <v>125.680211259261</v>
       </c>
       <c r="M22" t="n">
-        <v>132.5121611069731</v>
+        <v>592.7148092945133</v>
       </c>
       <c r="N22" t="n">
-        <v>311.6136993367584</v>
+        <v>576.0873818906932</v>
       </c>
       <c r="O22" t="n">
         <v>543.3944475481753</v>
       </c>
       <c r="P22" t="n">
-        <v>453.2580778605577</v>
+        <v>263.4614588364134</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.6780697880886</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R22" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J23" t="n">
         <v>599.6007578428442</v>
       </c>
       <c r="K23" t="n">
-        <v>239.7229253891284</v>
+        <v>245.4530017946636</v>
       </c>
       <c r="L23" t="n">
-        <v>297.3974866963032</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M23" t="n">
         <v>330.9120063106141</v>
@@ -36372,13 +36372,13 @@
         <v>336.2665085305712</v>
       </c>
       <c r="O23" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P23" t="n">
         <v>271.0018873233957</v>
       </c>
       <c r="Q23" t="n">
-        <v>209.2412076348833</v>
+        <v>203.5111312293484</v>
       </c>
       <c r="R23" t="n">
         <v>289.2435979871771</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.71654800366026</v>
+        <v>34.71654800366025</v>
       </c>
       <c r="J24" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K24" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L24" t="n">
-        <v>218.9353769326372</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M24" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N24" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686686</v>
       </c>
       <c r="O24" t="n">
         <v>239.9068254209628</v>
@@ -36457,10 +36457,10 @@
         <v>192.5463779596637</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.7121545348443</v>
+        <v>121.217225706014</v>
       </c>
       <c r="R24" t="n">
-        <v>55.1098423227379</v>
+        <v>62.60477115156868</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.76611244730788</v>
+        <v>147.2203398863886</v>
       </c>
       <c r="K25" t="n">
-        <v>98.30473648868605</v>
+        <v>375.7478746713047</v>
       </c>
       <c r="L25" t="n">
         <v>548.1144352673025</v>
       </c>
       <c r="M25" t="n">
-        <v>596.6372794715318</v>
+        <v>508.5742858632796</v>
       </c>
       <c r="N25" t="n">
-        <v>576.087381890693</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O25" t="n">
         <v>543.3944475481753</v>
@@ -36536,10 +36536,10 @@
         <v>453.2580778605575</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.78637800593469</v>
+        <v>240.6780697880881</v>
       </c>
       <c r="R25" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J26" t="n">
-        <v>599.6007578428442</v>
+        <v>231.3568050347416</v>
       </c>
       <c r="K26" t="n">
-        <v>239.7229253891284</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L26" t="n">
-        <v>297.3974866963032</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M26" t="n">
         <v>330.9120063106141</v>
       </c>
       <c r="N26" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305709</v>
       </c>
       <c r="O26" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P26" t="n">
-        <v>271.0018873233957</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.2412076348833</v>
+        <v>748.3478521127413</v>
       </c>
       <c r="R26" t="n">
-        <v>289.2435979871771</v>
+        <v>118.3809063174226</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.71654800366026</v>
+        <v>34.71654800366025</v>
       </c>
       <c r="J27" t="n">
-        <v>87.76993238732813</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K27" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L27" t="n">
-        <v>218.9353769326372</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M27" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N27" t="n">
-        <v>262.2492458686687</v>
+        <v>262.2492458686686</v>
       </c>
       <c r="O27" t="n">
-        <v>239.9068254209628</v>
+        <v>232.4118965921325</v>
       </c>
       <c r="P27" t="n">
         <v>192.5463779596637</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.76611244730788</v>
+        <v>147.2203398863886</v>
       </c>
       <c r="K28" t="n">
-        <v>98.30473648868605</v>
+        <v>375.7478746713047</v>
       </c>
       <c r="L28" t="n">
         <v>548.1144352673025</v>
       </c>
       <c r="M28" t="n">
-        <v>596.6372794715318</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N28" t="n">
-        <v>576.087381890693</v>
+        <v>505.4234428513989</v>
       </c>
       <c r="O28" t="n">
         <v>543.3944475481753</v>
@@ -36773,10 +36773,10 @@
         <v>453.2580778605575</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.78637800593469</v>
+        <v>240.6780697880881</v>
       </c>
       <c r="R28" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J29" t="n">
         <v>599.6007578428442</v>
       </c>
       <c r="K29" t="n">
-        <v>239.7229253891284</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L29" t="n">
-        <v>303.1275631018381</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M29" t="n">
         <v>330.9120063106141</v>
@@ -36846,13 +36846,13 @@
         <v>336.2665085305712</v>
       </c>
       <c r="O29" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P29" t="n">
         <v>271.0018873233957</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.5111312293484</v>
+        <v>209.2412076348837</v>
       </c>
       <c r="R29" t="n">
         <v>289.2435979871771</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>27.22161917482968</v>
+        <v>34.71654800366025</v>
       </c>
       <c r="J30" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K30" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L30" t="n">
-        <v>218.9353769326372</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M30" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N30" t="n">
-        <v>262.2492458686687</v>
+        <v>262.2492458686686</v>
       </c>
       <c r="O30" t="n">
         <v>239.9068254209628</v>
@@ -36931,7 +36931,7 @@
         <v>192.5463779596637</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.7121545348443</v>
+        <v>121.217225706014</v>
       </c>
       <c r="R30" t="n">
         <v>62.60477115156868</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>133.3400388811958</v>
+        <v>59.85676676078582</v>
       </c>
       <c r="K31" t="n">
-        <v>375.7478746713048</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L31" t="n">
         <v>548.1144352673025</v>
@@ -37007,13 +37007,13 @@
         <v>543.3944475481753</v>
       </c>
       <c r="P31" t="n">
-        <v>102.2410132440509</v>
+        <v>453.2580778605575</v>
       </c>
       <c r="Q31" t="n">
         <v>70.78637800593469</v>
       </c>
       <c r="R31" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,28 +37065,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J32" t="n">
-        <v>599.6007578428442</v>
+        <v>174.5099107455061</v>
       </c>
       <c r="K32" t="n">
-        <v>239.7229253891284</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L32" t="n">
-        <v>297.3974866963032</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M32" t="n">
         <v>330.9120063106141</v>
       </c>
       <c r="N32" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305709</v>
       </c>
       <c r="O32" t="n">
-        <v>317.526928609868</v>
+        <v>748.3478521127415</v>
       </c>
       <c r="P32" t="n">
-        <v>276.7319637289306</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q32" t="n">
         <v>203.5111312293484</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.71654800366026</v>
+        <v>34.71654800366025</v>
       </c>
       <c r="J33" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K33" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L33" t="n">
-        <v>211.4404481038066</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M33" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N33" t="n">
-        <v>262.2492458686687</v>
+        <v>254.7543170398383</v>
       </c>
       <c r="O33" t="n">
         <v>239.9068254209628</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.76611244730788</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K34" t="n">
-        <v>98.30473648868605</v>
+        <v>98.30473648868617</v>
       </c>
       <c r="L34" t="n">
         <v>548.1144352673025</v>
       </c>
       <c r="M34" t="n">
-        <v>596.6372794715318</v>
+        <v>596.6372794715317</v>
       </c>
       <c r="N34" t="n">
         <v>576.087381890693</v>
@@ -37250,7 +37250,7 @@
         <v>70.78637800593469</v>
       </c>
       <c r="R34" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J35" t="n">
-        <v>159.9495583954525</v>
+        <v>159.9495583954523</v>
       </c>
       <c r="K35" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L35" t="n">
         <v>297.3974866963031</v>
@@ -37323,7 +37323,7 @@
         <v>317.526928609868</v>
       </c>
       <c r="P35" t="n">
-        <v>271.0018873233957</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q35" t="n">
         <v>203.5111312293484</v>
@@ -37384,19 +37384,19 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J36" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K36" t="n">
-        <v>155.3278925534316</v>
+        <v>162.8228213822624</v>
       </c>
       <c r="L36" t="n">
         <v>218.9353769326372</v>
       </c>
       <c r="M36" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N36" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O36" t="n">
         <v>239.9068254209628</v>
@@ -37408,7 +37408,7 @@
         <v>128.7121545348443</v>
       </c>
       <c r="R36" t="n">
-        <v>62.60477115156868</v>
+        <v>55.10984232273813</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>147.2203398863886</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K37" t="n">
         <v>375.7478746713048</v>
       </c>
       <c r="L37" t="n">
-        <v>548.1144352673024</v>
+        <v>125.6802112592611</v>
       </c>
       <c r="M37" t="n">
-        <v>132.5121611069731</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="N37" t="n">
-        <v>129.3613180950924</v>
+        <v>576.087381890693</v>
       </c>
       <c r="O37" t="n">
-        <v>303.2126047817999</v>
+        <v>427.0811006444414</v>
       </c>
       <c r="P37" t="n">
-        <v>453.2580778605577</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.6780697880886</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R37" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773756</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,25 +37539,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J38" t="n">
-        <v>159.9495583954525</v>
+        <v>159.9495583954524</v>
       </c>
       <c r="K38" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L38" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M38" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N38" t="n">
         <v>336.2665085305712</v>
       </c>
       <c r="O38" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P38" t="n">
         <v>271.0018873233957</v>
@@ -37621,7 +37621,7 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J39" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K39" t="n">
         <v>162.8228213822624</v>
@@ -37630,10 +37630,10 @@
         <v>218.9353769326372</v>
       </c>
       <c r="M39" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N39" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O39" t="n">
         <v>239.9068254209628</v>
@@ -37645,7 +37645,7 @@
         <v>128.7121545348443</v>
       </c>
       <c r="R39" t="n">
-        <v>55.1098423227379</v>
+        <v>55.10984232273813</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>147.2203398863886</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K40" t="n">
         <v>375.7478746713048</v>
       </c>
       <c r="L40" t="n">
-        <v>548.1144352673024</v>
+        <v>125.6802112592611</v>
       </c>
       <c r="M40" t="n">
-        <v>592.7148092945133</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="N40" t="n">
-        <v>203.9022243089778</v>
+        <v>576.087381890693</v>
       </c>
       <c r="O40" t="n">
-        <v>119.486114996881</v>
+        <v>427.0811006444414</v>
       </c>
       <c r="P40" t="n">
         <v>102.2410132440509</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.6780697880886</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R40" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773756</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J41" t="n">
-        <v>159.9495583954524</v>
+        <v>159.9495583954523</v>
       </c>
       <c r="K41" t="n">
-        <v>239.7229253891284</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L41" t="n">
         <v>297.3974866963031</v>
@@ -37794,7 +37794,7 @@
         <v>336.2665085305712</v>
       </c>
       <c r="O41" t="n">
-        <v>317.5269286098678</v>
+        <v>317.526928609868</v>
       </c>
       <c r="P41" t="n">
         <v>271.0018873233955</v>
@@ -37858,16 +37858,16 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J42" t="n">
-        <v>95.26486121615871</v>
+        <v>87.76993238732811</v>
       </c>
       <c r="K42" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L42" t="n">
-        <v>218.9353769326372</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M42" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N42" t="n">
         <v>262.2492458686688</v>
@@ -37882,7 +37882,7 @@
         <v>128.7121545348443</v>
       </c>
       <c r="R42" t="n">
-        <v>55.1098423227379</v>
+        <v>62.60477115156868</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>147.2203398863886</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K43" t="n">
-        <v>375.7478746713048</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L43" t="n">
-        <v>271.638276864681</v>
+        <v>125.6802112592611</v>
       </c>
       <c r="M43" t="n">
-        <v>592.7148092945133</v>
+        <v>584.0435631047224</v>
       </c>
       <c r="N43" t="n">
-        <v>129.3613180950924</v>
+        <v>576.0873818906931</v>
       </c>
       <c r="O43" t="n">
-        <v>119.486114996881</v>
+        <v>543.3944475481753</v>
       </c>
       <c r="P43" t="n">
-        <v>453.2580778605577</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.6780697880886</v>
+        <v>240.6780697880881</v>
       </c>
       <c r="R43" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773756</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>72.241825273141</v>
+        <v>72.24182527314099</v>
       </c>
       <c r="J44" t="n">
         <v>159.9495583954526</v>
@@ -38022,19 +38022,19 @@
         <v>239.7229253891282</v>
       </c>
       <c r="L44" t="n">
-        <v>297.3974866963033</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M44" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106138</v>
       </c>
       <c r="N44" t="n">
-        <v>336.2665085305714</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O44" t="n">
-        <v>317.5269286098676</v>
+        <v>317.526928609868</v>
       </c>
       <c r="P44" t="n">
-        <v>271.0018873233957</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q44" t="n">
         <v>203.5111312293484</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>27.22161917482946</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J45" t="n">
-        <v>95.26486121615871</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K45" t="n">
         <v>162.8228213822624</v>
@@ -38104,10 +38104,10 @@
         <v>218.9353769326372</v>
       </c>
       <c r="M45" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N45" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O45" t="n">
         <v>239.9068254209628</v>
@@ -38119,7 +38119,7 @@
         <v>128.7121545348443</v>
       </c>
       <c r="R45" t="n">
-        <v>62.60477115156868</v>
+        <v>55.10984232273813</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.76611244730788</v>
+        <v>147.2203398863885</v>
       </c>
       <c r="K46" t="n">
-        <v>98.21408217520826</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L46" t="n">
         <v>125.6802112592611</v>
       </c>
       <c r="M46" t="n">
-        <v>592.7148092945133</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="N46" t="n">
-        <v>216.3990710843952</v>
+        <v>576.0873818906931</v>
       </c>
       <c r="O46" t="n">
         <v>543.3944475481753</v>
       </c>
       <c r="P46" t="n">
-        <v>453.2580778605577</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.6780697880886</v>
+        <v>144.5525961592166</v>
       </c>
       <c r="R46" t="n">
-        <v>16.80628261773757</v>
+        <v>16.80628261773756</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
